--- a/data spreadsheets/film.xlsx
+++ b/data spreadsheets/film.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCBF2BD-10E4-48C1-9ED4-DFF1B29104A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BCE33-6891-4FA7-8C3B-8EDCE6F55205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57630" yWindow="11640" windowWidth="14250" windowHeight="1830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>ALSO DIRECTED BY ETHAN COEN</t>
+  </si>
+  <si>
+    <t>image paths</t>
+  </si>
+  <si>
+    <t>/imgs/logo.png</t>
+  </si>
+  <si>
+    <t>con</t>
   </si>
 </sst>
 </file>
@@ -358,9 +367,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +381,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -412,7 +427,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I93" sqref="B1:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -704,9 +722,11 @@
     <col min="2" max="2" width="42.734375" customWidth="1"/>
     <col min="3" max="3" width="13.47265625" customWidth="1"/>
     <col min="4" max="4" width="15.05078125" customWidth="1"/>
+    <col min="9" max="9" width="12.7890625" customWidth="1"/>
+    <col min="13" max="13" width="34.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +751,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,6 +768,9 @@
       <c r="C2" s="4">
         <v>10086</v>
       </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>144</v>
       </c>
@@ -754,8 +783,12 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f xml:space="preserve"> A2 + 1</f>
         <v>2</v>
@@ -766,6 +799,9 @@
       <c r="C3" s="4">
         <v>10756</v>
       </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>100</v>
       </c>
@@ -776,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f xml:space="preserve"> A3 + 1</f>
         <v>3</v>
@@ -787,6 +823,9 @@
       <c r="C4" s="4">
         <v>11069</v>
       </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>152</v>
       </c>
@@ -797,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0" xml:space="preserve"> A4 + 1</f>
         <v>4</v>
@@ -808,6 +847,9 @@
       <c r="C5" s="4">
         <v>11363</v>
       </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <v>124</v>
       </c>
@@ -818,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -829,6 +871,9 @@
       <c r="C6" s="3">
         <v>11791</v>
       </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
       <c r="E6">
         <v>112</v>
       </c>
@@ -839,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -850,6 +895,9 @@
       <c r="C7" s="3">
         <v>12159</v>
       </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>112</v>
       </c>
@@ -860,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -871,6 +919,9 @@
       <c r="C8" s="3">
         <v>12472</v>
       </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
       <c r="E8">
         <v>105</v>
       </c>
@@ -881,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -892,6 +943,9 @@
       <c r="C9" s="3">
         <v>13096</v>
       </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>132</v>
       </c>
@@ -902,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -913,6 +967,9 @@
       <c r="C10" s="3">
         <v>13397</v>
       </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
       <c r="E10">
         <v>177</v>
       </c>
@@ -923,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -934,6 +991,9 @@
       <c r="C11" s="3">
         <v>13738</v>
       </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>116</v>
       </c>
@@ -944,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -955,6 +1015,9 @@
       <c r="C12" s="3">
         <v>14115</v>
       </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>126</v>
       </c>
@@ -965,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -976,6 +1039,9 @@
       <c r="C13" s="3">
         <v>14594</v>
       </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>221</v>
       </c>
@@ -986,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -997,6 +1063,9 @@
       <c r="C14" s="3">
         <v>14713</v>
       </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
       <c r="E14">
         <v>130</v>
       </c>
@@ -1007,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1018,6 +1087,9 @@
       <c r="C15" s="3">
         <v>15277</v>
       </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>118</v>
       </c>
@@ -1028,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1039,6 +1111,9 @@
       <c r="C16" s="3">
         <v>15496</v>
       </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
       <c r="E16">
         <v>133</v>
       </c>
@@ -1060,6 +1135,9 @@
       <c r="C17" s="3">
         <v>15729</v>
       </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>102</v>
       </c>
@@ -1084,6 +1162,9 @@
       <c r="C18" s="3">
         <v>16195</v>
       </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>126</v>
       </c>
@@ -1105,6 +1186,9 @@
       <c r="C19" s="3">
         <v>16770</v>
       </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>99</v>
       </c>
@@ -1126,6 +1210,9 @@
       <c r="C20" s="3">
         <v>17127</v>
       </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
       <c r="E20">
         <v>172</v>
       </c>
@@ -1147,6 +1234,9 @@
       <c r="C21" s="3">
         <v>17482</v>
       </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>118</v>
       </c>
@@ -1168,6 +1258,9 @@
       <c r="C22" s="3">
         <v>17657</v>
       </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>155</v>
       </c>
@@ -1189,6 +1282,9 @@
       <c r="C23" s="3">
         <v>18210</v>
       </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>110</v>
       </c>
@@ -1210,6 +1306,9 @@
       <c r="C24" s="3">
         <v>18549</v>
       </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
       <c r="E24">
         <v>138</v>
       </c>
@@ -1231,6 +1330,9 @@
       <c r="C25" s="3">
         <v>19004</v>
       </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>113</v>
       </c>
@@ -1252,6 +1354,9 @@
       <c r="C26" s="3">
         <v>19003</v>
       </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
       <c r="E26">
         <v>152</v>
       </c>
@@ -1273,6 +1378,9 @@
       <c r="C27" s="3">
         <v>19576</v>
       </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
       <c r="E27">
         <v>118</v>
       </c>
@@ -1294,6 +1402,9 @@
       <c r="C28" s="3">
         <v>19933</v>
       </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
       <c r="E28">
         <v>108</v>
       </c>
@@ -1315,6 +1426,9 @@
       <c r="C29" s="3">
         <v>20190</v>
       </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
       <c r="E29">
         <v>90</v>
       </c>
@@ -1336,6 +1450,9 @@
       <c r="C30" s="3">
         <v>20745</v>
       </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
       <c r="E30">
         <v>182</v>
       </c>
@@ -1360,6 +1477,9 @@
       <c r="C31" s="3">
         <v>21095</v>
       </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
       <c r="E31">
         <v>161</v>
       </c>
@@ -1384,6 +1504,9 @@
       <c r="C32" s="3">
         <v>21320</v>
       </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
       <c r="E32">
         <v>115</v>
       </c>
@@ -1408,6 +1531,9 @@
       <c r="C33" s="3">
         <v>21872</v>
       </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
       <c r="E33">
         <v>212</v>
       </c>
@@ -1432,6 +1558,9 @@
       <c r="C34" s="3">
         <v>22097</v>
       </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
       <c r="E34">
         <v>125</v>
       </c>
@@ -1453,6 +1582,9 @@
       <c r="C35" s="3">
         <v>22572</v>
       </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
       <c r="E35">
         <v>152</v>
       </c>
@@ -1480,6 +1612,9 @@
       <c r="C36" s="3">
         <v>22990</v>
       </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
       <c r="E36">
         <v>228</v>
       </c>
@@ -1504,6 +1639,9 @@
       <c r="C37" s="3">
         <v>23283</v>
       </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
       <c r="E37">
         <v>128</v>
       </c>
@@ -1525,6 +1663,9 @@
       <c r="C38" s="3">
         <v>23671</v>
       </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
       <c r="E38">
         <v>170</v>
       </c>
@@ -1549,6 +1690,9 @@
       <c r="C39" s="3">
         <v>23803</v>
       </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
       <c r="E39">
         <v>174</v>
       </c>
@@ -1573,6 +1717,9 @@
       <c r="C40" s="3">
         <v>24453</v>
       </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>120</v>
       </c>
@@ -1597,6 +1744,9 @@
       <c r="C41" s="3">
         <v>24686</v>
       </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
       <c r="E41">
         <v>109</v>
       </c>
@@ -1618,6 +1768,9 @@
       <c r="C42" s="3">
         <v>25107</v>
       </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
       <c r="E42">
         <v>153</v>
       </c>
@@ -1642,6 +1795,9 @@
       <c r="C43" s="3">
         <v>25348</v>
       </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
       <c r="E43">
         <v>113</v>
       </c>
@@ -1666,6 +1822,9 @@
       <c r="C44" s="3">
         <v>25660</v>
       </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
       <c r="E44">
         <v>170</v>
       </c>
@@ -1690,6 +1849,9 @@
       <c r="C45" s="3">
         <v>26213</v>
       </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
       <c r="E45">
         <v>104</v>
       </c>
@@ -1714,6 +1876,9 @@
       <c r="C46" s="3">
         <v>26382</v>
       </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
       <c r="E46">
         <v>177</v>
       </c>
@@ -1738,6 +1903,9 @@
       <c r="C47" s="3">
         <v>27023</v>
       </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
       <c r="E47">
         <v>129</v>
       </c>
@@ -1762,6 +1930,9 @@
       <c r="C48" s="3">
         <v>27383</v>
       </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
       <c r="E48">
         <v>200</v>
       </c>
@@ -1786,6 +1957,9 @@
       <c r="C49" s="3">
         <v>27717</v>
       </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
       <c r="E49">
         <v>133</v>
       </c>
@@ -1810,6 +1984,9 @@
       <c r="C50" s="3">
         <v>28097</v>
       </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
       <c r="E50">
         <v>119</v>
       </c>
@@ -1834,6 +2011,9 @@
       <c r="C51" s="3">
         <v>28235</v>
       </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
       <c r="E51">
         <v>93</v>
       </c>
@@ -1858,6 +2038,9 @@
       <c r="C52" s="3">
         <v>28909</v>
       </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
       <c r="E52">
         <v>183</v>
       </c>
@@ -1882,6 +2065,9 @@
       <c r="C53" s="3">
         <v>29208</v>
       </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
       <c r="E53">
         <v>105</v>
       </c>
@@ -1906,6 +2092,9 @@
       <c r="C54" s="3">
         <v>29483</v>
       </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
       <c r="E54">
         <v>124</v>
       </c>
@@ -1930,6 +2119,9 @@
       <c r="C55" s="3">
         <v>29721</v>
       </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
       <c r="E55">
         <v>124</v>
       </c>
@@ -1954,6 +2146,9 @@
       <c r="C56" s="3">
         <v>30288</v>
       </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
       <c r="E56">
         <v>191</v>
       </c>
@@ -1978,6 +2173,9 @@
       <c r="C57" s="3">
         <v>30659</v>
       </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
       <c r="E57">
         <v>132</v>
       </c>
@@ -2002,6 +2200,9 @@
       <c r="C58" s="3">
         <v>30944</v>
       </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
       <c r="E58">
         <v>161</v>
       </c>
@@ -2026,6 +2227,9 @@
       <c r="C59" s="3">
         <v>31399</v>
       </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
       <c r="E59">
         <v>161</v>
       </c>
@@ -2050,6 +2254,9 @@
       <c r="C60" s="3">
         <v>31765</v>
       </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
       <c r="E60">
         <v>120</v>
       </c>
@@ -2074,6 +2281,9 @@
       <c r="C61" s="3">
         <v>32199</v>
       </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
       <c r="E61">
         <v>163</v>
       </c>
@@ -2098,6 +2308,9 @@
       <c r="C62" s="3">
         <v>32493</v>
       </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
       <c r="E62">
         <v>134</v>
       </c>
@@ -2122,6 +2335,9 @@
       <c r="C63" s="3">
         <v>32857</v>
       </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
       <c r="E63">
         <v>100</v>
       </c>
@@ -2145,6 +2361,9 @@
       </c>
       <c r="C64" s="3">
         <v>33186</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
       </c>
       <c r="E64">
         <v>181</v>
@@ -2171,6 +2390,9 @@
       <c r="C65" s="3">
         <v>33283</v>
       </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
       <c r="E65">
         <v>118</v>
       </c>
@@ -2196,6 +2418,9 @@
       <c r="C66" s="3">
         <v>33823</v>
       </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
       <c r="E66">
         <v>131</v>
       </c>
@@ -2221,6 +2446,9 @@
       <c r="C67" s="3">
         <v>34318</v>
       </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
       <c r="E67">
         <v>195</v>
       </c>
@@ -2245,6 +2473,9 @@
       </c>
       <c r="C68" s="3">
         <v>34521</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
       </c>
       <c r="E68">
         <v>142</v>
@@ -2271,6 +2502,9 @@
       <c r="C69" s="3">
         <v>34843</v>
       </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
       <c r="E69">
         <v>178</v>
       </c>
@@ -2296,6 +2530,9 @@
       <c r="C70" s="3">
         <v>35384</v>
       </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
       <c r="E70">
         <v>162</v>
       </c>
@@ -2321,6 +2558,9 @@
       <c r="C71" s="3">
         <v>35783</v>
       </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
       <c r="E71">
         <v>195</v>
       </c>
@@ -2346,6 +2586,9 @@
       <c r="C72" s="3">
         <v>36140</v>
       </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
       <c r="E72">
         <v>123</v>
       </c>
@@ -2371,6 +2614,9 @@
       <c r="C73" s="3">
         <v>36418</v>
       </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
       <c r="E73">
         <v>122</v>
       </c>
@@ -2396,6 +2642,9 @@
       <c r="C74" s="3">
         <v>36651</v>
       </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
       <c r="E74">
         <v>155</v>
       </c>
@@ -2420,6 +2669,9 @@
       <c r="C75" s="3">
         <v>37238</v>
       </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
       <c r="E75">
         <v>135</v>
       </c>
@@ -2444,6 +2696,9 @@
       <c r="C76" s="3">
         <v>37617</v>
       </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>113</v>
       </c>
@@ -2468,6 +2723,9 @@
       <c r="C77" s="3">
         <v>37972</v>
       </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
       <c r="E77">
         <v>201</v>
       </c>
@@ -2492,6 +2750,9 @@
       <c r="C78" s="3">
         <v>38336</v>
       </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
       <c r="E78">
         <v>132</v>
       </c>
@@ -2516,6 +2777,9 @@
       <c r="C79" s="3">
         <v>38240</v>
       </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
       <c r="E79">
         <v>112</v>
       </c>
@@ -2540,6 +2804,9 @@
       <c r="C80" s="3">
         <v>38996</v>
       </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
       <c r="E80">
         <v>151</v>
       </c>
@@ -2553,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -2564,6 +2831,9 @@
       <c r="C81" s="3">
         <v>39395</v>
       </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
       <c r="E81">
         <v>122</v>
       </c>
@@ -2580,7 +2850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -2591,6 +2861,9 @@
       <c r="C82" s="3">
         <v>39807</v>
       </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
       <c r="E82">
         <v>120</v>
       </c>
@@ -2604,7 +2877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -2615,6 +2888,9 @@
       <c r="C83" s="3">
         <v>39990</v>
       </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
       <c r="E83">
         <v>131</v>
       </c>
@@ -2628,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -2639,6 +2915,9 @@
       <c r="C84" s="3">
         <v>40535</v>
       </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
       <c r="E84">
         <v>119</v>
       </c>
@@ -2653,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -2664,6 +2943,9 @@
       <c r="C85" s="3">
         <v>40828</v>
       </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
       <c r="E85">
         <v>100</v>
       </c>
@@ -2678,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -2689,6 +2971,9 @@
       <c r="C86" s="3">
         <v>41194</v>
       </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
       <c r="E86">
         <v>120</v>
       </c>
@@ -2703,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -2714,6 +2999,9 @@
       <c r="C87" s="3">
         <v>41586</v>
       </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
       <c r="E87">
         <v>134</v>
       </c>
@@ -2728,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2739,6 +3027,9 @@
       <c r="C88" s="3">
         <v>41929</v>
       </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
       <c r="E88">
         <v>119</v>
       </c>
@@ -2753,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2764,6 +3055,9 @@
       <c r="C89" s="3">
         <v>42314</v>
       </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
       <c r="E89">
         <v>129</v>
       </c>
@@ -2778,7 +3072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2789,6 +3083,9 @@
       <c r="C90" s="3">
         <v>42664</v>
       </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
       <c r="E90">
         <v>111</v>
       </c>
@@ -2803,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -2814,6 +3111,9 @@
       <c r="C91" s="3">
         <v>43070</v>
       </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
       <c r="E91">
         <v>123</v>
       </c>
@@ -2828,7 +3128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -2839,6 +3139,9 @@
       <c r="C92" s="3">
         <v>43425</v>
       </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
       <c r="E92">
         <v>130</v>
       </c>
@@ -2853,7 +3156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -2864,6 +3167,9 @@
       <c r="C93" s="3">
         <v>43615</v>
       </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
       <c r="E93">
         <v>132</v>
       </c>
@@ -2877,8 +3183,2736 @@
       <c r="H93">
         <v>7</v>
       </c>
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M95" s="5"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M96" s="5"/>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M97" s="5"/>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M99" s="5"/>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M105" s="5"/>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M106" s="5"/>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M108" s="5"/>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M109" s="5"/>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M110" s="5"/>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M112" s="5"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M113" s="5"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M114" s="5"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M115" s="5"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M116" s="5"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M117" s="5"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M118" s="5"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M124" s="5"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M126" s="5"/>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M132" s="5"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M135" s="5"/>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M145" s="5"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M147" s="5"/>
+    </row>
+    <row r="148" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M148" s="5"/>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M160" s="5"/>
+    </row>
+    <row r="161" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M162" s="5"/>
+    </row>
+    <row r="163" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M169" s="5"/>
+    </row>
+    <row r="170" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M170" s="5"/>
+    </row>
+    <row r="171" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M173" s="5"/>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M174" s="5"/>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M175" s="5"/>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M176" s="5"/>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M177" s="5"/>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M178" s="5"/>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M179" s="5"/>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M180" s="5"/>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M181" s="5"/>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M182" s="5"/>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M183" s="5"/>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M184" s="5"/>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M185" s="5"/>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M186" s="5"/>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M187" s="5"/>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M188" s="5"/>
+    </row>
+    <row r="189" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M189" s="5"/>
+    </row>
+    <row r="190" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M190" s="5"/>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M191" s="5"/>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M192" s="5"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M193" s="5"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M194" s="5"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M195" s="5"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M196" s="5"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M197" s="5"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M198" s="5"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M199" s="5"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M200" s="5"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M201" s="5"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M202" s="5"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M203" s="5"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M204" s="5"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M205" s="5"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M206" s="5"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M207" s="5"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M208" s="5"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M209" s="5"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M210" s="5"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M211" s="5"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M212" s="5"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M213" s="5"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M214" s="5"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M215" s="5"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M216" s="5"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M217" s="5"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M218" s="5"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M219" s="5"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M220" s="5"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M221" s="5"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M222" s="5"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M223" s="5"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M224" s="5"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M225" s="5"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M226" s="5"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M227" s="5"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M228" s="5"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M229" s="5"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M230" s="5"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M231" s="5"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M232" s="5"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M233" s="5"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M234" s="5"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M235" s="5"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M236" s="5"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M237" s="5"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M238" s="5"/>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M239" s="5"/>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M240" s="5"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M241" s="5"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M242" s="5"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M243" s="5"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M244" s="5"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M245" s="5"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M246" s="5"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M247" s="5"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M248" s="5"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M249" s="5"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M250" s="5"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M251" s="5"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M252" s="5"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M253" s="5"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M254" s="5"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M255" s="5"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M256" s="5"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M257" s="5"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M258" s="5"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M259" s="5"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M260" s="5"/>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M261" s="5"/>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M262" s="5"/>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M263" s="5"/>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M264" s="5"/>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M265" s="5"/>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M266" s="5"/>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M267" s="5"/>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M268" s="5"/>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M269" s="5"/>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M270" s="5"/>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M271" s="5"/>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M272" s="5"/>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M273" s="5"/>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M274" s="5"/>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M275" s="5"/>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M276" s="5"/>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M277" s="5"/>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M278" s="5"/>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M279" s="5"/>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M280" s="5"/>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M281" s="5"/>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M282" s="5"/>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M283" s="5"/>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M284" s="5"/>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M285" s="5"/>
+    </row>
+    <row r="286" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M286" s="5"/>
+    </row>
+    <row r="287" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M287" s="5"/>
+    </row>
+    <row r="288" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M288" s="5"/>
+    </row>
+    <row r="289" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M289" s="5"/>
+    </row>
+    <row r="290" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M290" s="5"/>
+    </row>
+    <row r="291" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M291" s="5"/>
+    </row>
+    <row r="292" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M292" s="5"/>
+    </row>
+    <row r="293" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M293" s="5"/>
+    </row>
+    <row r="294" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M294" s="5"/>
+    </row>
+    <row r="295" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M295" s="5"/>
+    </row>
+    <row r="296" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M296" s="5"/>
+    </row>
+    <row r="297" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M297" s="5"/>
+    </row>
+    <row r="298" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M298" s="5"/>
+    </row>
+    <row r="299" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M299" s="5"/>
+    </row>
+    <row r="300" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M300" s="5"/>
+    </row>
+    <row r="301" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M301" s="5"/>
+    </row>
+    <row r="302" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M302" s="5"/>
+    </row>
+    <row r="303" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M303" s="5"/>
+    </row>
+    <row r="304" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M304" s="5"/>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M305" s="5"/>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M306" s="5"/>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M307" s="5"/>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M308" s="5"/>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M309" s="5"/>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M310" s="5"/>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M311" s="5"/>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M312" s="5"/>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M313" s="5"/>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M314" s="5"/>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M315" s="5"/>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M316" s="5"/>
+    </row>
+    <row r="317" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M317" s="5"/>
+    </row>
+    <row r="318" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M318" s="5"/>
+    </row>
+    <row r="319" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M319" s="5"/>
+    </row>
+    <row r="320" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M320" s="5"/>
+    </row>
+    <row r="321" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M321" s="5"/>
+    </row>
+    <row r="322" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M322" s="5"/>
+    </row>
+    <row r="323" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M323" s="5"/>
+    </row>
+    <row r="324" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M324" s="5"/>
+    </row>
+    <row r="325" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M325" s="5"/>
+    </row>
+    <row r="326" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M326" s="5"/>
+    </row>
+    <row r="327" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M327" s="5"/>
+    </row>
+    <row r="328" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M328" s="5"/>
+    </row>
+    <row r="329" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M329" s="5"/>
+    </row>
+    <row r="330" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M330" s="5"/>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M331" s="5"/>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M332" s="5"/>
+    </row>
+    <row r="333" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M333" s="5"/>
+    </row>
+    <row r="334" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M334" s="5"/>
+    </row>
+    <row r="335" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M335" s="5"/>
+    </row>
+    <row r="336" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M336" s="5"/>
+    </row>
+    <row r="337" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M337" s="5"/>
+    </row>
+    <row r="338" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M338" s="5"/>
+    </row>
+    <row r="339" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M339" s="5"/>
+    </row>
+    <row r="340" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M340" s="5"/>
+    </row>
+    <row r="341" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M341" s="5"/>
+    </row>
+    <row r="342" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M342" s="5"/>
+    </row>
+    <row r="343" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M343" s="5"/>
+    </row>
+    <row r="344" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M344" s="5"/>
+    </row>
+    <row r="345" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M345" s="5"/>
+    </row>
+    <row r="346" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M346" s="5"/>
+    </row>
+    <row r="347" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M347" s="5"/>
+    </row>
+    <row r="348" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M348" s="5"/>
+    </row>
+    <row r="349" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M349" s="5"/>
+    </row>
+    <row r="350" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M350" s="5"/>
+    </row>
+    <row r="351" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M351" s="5"/>
+    </row>
+    <row r="352" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M352" s="5"/>
+    </row>
+    <row r="353" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M353" s="5"/>
+    </row>
+    <row r="354" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M354" s="5"/>
+    </row>
+    <row r="355" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M355" s="5"/>
+    </row>
+    <row r="356" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M356" s="5"/>
+    </row>
+    <row r="357" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M357" s="5"/>
+    </row>
+    <row r="358" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M358" s="5"/>
+    </row>
+    <row r="359" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M359" s="5"/>
+    </row>
+    <row r="360" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M360" s="5"/>
+    </row>
+    <row r="361" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M361" s="5"/>
+    </row>
+    <row r="362" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M362" s="5"/>
+    </row>
+    <row r="363" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M363" s="5"/>
+    </row>
+    <row r="364" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M364" s="5"/>
+    </row>
+    <row r="365" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M365" s="5"/>
+    </row>
+    <row r="366" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M366" s="5"/>
+    </row>
+    <row r="367" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M367" s="5"/>
+    </row>
+    <row r="368" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M368" s="5"/>
+    </row>
+    <row r="369" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M369" s="5"/>
+    </row>
+    <row r="370" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M370" s="5"/>
+    </row>
+    <row r="371" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M371" s="5"/>
+    </row>
+    <row r="372" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M372" s="5"/>
+    </row>
+    <row r="373" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M373" s="5"/>
+    </row>
+    <row r="374" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M374" s="5"/>
+    </row>
+    <row r="375" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M375" s="5"/>
+    </row>
+    <row r="376" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M376" s="5"/>
+    </row>
+    <row r="377" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M377" s="5"/>
+    </row>
+    <row r="378" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M378" s="5"/>
+    </row>
+    <row r="379" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M379" s="5"/>
+    </row>
+    <row r="380" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M380" s="5"/>
+    </row>
+    <row r="381" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M381" s="5"/>
+    </row>
+    <row r="382" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M382" s="5"/>
+    </row>
+    <row r="383" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M383" s="5"/>
+    </row>
+    <row r="384" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M384" s="5"/>
+    </row>
+    <row r="385" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M385" s="5"/>
+    </row>
+    <row r="386" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M386" s="5"/>
+    </row>
+    <row r="387" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M387" s="5"/>
+    </row>
+    <row r="388" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M388" s="5"/>
+    </row>
+    <row r="389" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M389" s="5"/>
+    </row>
+    <row r="390" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M390" s="5"/>
+    </row>
+    <row r="391" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M391" s="5"/>
+    </row>
+    <row r="392" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M392" s="5"/>
+    </row>
+    <row r="393" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M393" s="5"/>
+    </row>
+    <row r="394" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M394" s="5"/>
+    </row>
+    <row r="395" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M395" s="5"/>
+    </row>
+    <row r="396" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M396" s="5"/>
+    </row>
+    <row r="397" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M397" s="5"/>
+    </row>
+    <row r="398" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M398" s="5"/>
+    </row>
+    <row r="399" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M399" s="5"/>
+    </row>
+    <row r="400" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M400" s="5"/>
+    </row>
+    <row r="401" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M401" s="5"/>
+    </row>
+    <row r="402" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M402" s="5"/>
+    </row>
+    <row r="403" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M403" s="5"/>
+    </row>
+    <row r="404" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M404" s="5"/>
+    </row>
+    <row r="405" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M405" s="5"/>
+    </row>
+    <row r="406" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M406" s="5"/>
+    </row>
+    <row r="407" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M407" s="5"/>
+    </row>
+    <row r="408" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M408" s="5"/>
+    </row>
+    <row r="409" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M409" s="5"/>
+    </row>
+    <row r="410" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M410" s="5"/>
+    </row>
+    <row r="411" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M411" s="5"/>
+    </row>
+    <row r="412" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M412" s="5"/>
+    </row>
+    <row r="413" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M413" s="5"/>
+    </row>
+    <row r="414" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M414" s="5"/>
+    </row>
+    <row r="415" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M415" s="5"/>
+    </row>
+    <row r="416" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M416" s="5"/>
+    </row>
+    <row r="417" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M417" s="5"/>
+    </row>
+    <row r="418" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M418" s="5"/>
+    </row>
+    <row r="419" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M419" s="5"/>
+    </row>
+    <row r="420" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M420" s="5"/>
+    </row>
+    <row r="421" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M421" s="5"/>
+    </row>
+    <row r="422" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M422" s="5"/>
+    </row>
+    <row r="423" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M423" s="5"/>
+    </row>
+    <row r="424" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M424" s="5"/>
+    </row>
+    <row r="425" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M425" s="5"/>
+    </row>
+    <row r="426" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M426" s="5"/>
+    </row>
+    <row r="427" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M427" s="5"/>
+    </row>
+    <row r="428" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M428" s="5"/>
+    </row>
+    <row r="429" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M429" s="5"/>
+    </row>
+    <row r="430" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M430" s="5"/>
+    </row>
+    <row r="431" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M431" s="5"/>
+    </row>
+    <row r="432" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M432" s="5"/>
+    </row>
+    <row r="433" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M433" s="5"/>
+    </row>
+    <row r="434" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M434" s="5"/>
+    </row>
+    <row r="435" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M435" s="5"/>
+    </row>
+    <row r="436" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M436" s="5"/>
+    </row>
+    <row r="437" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M437" s="5"/>
+    </row>
+    <row r="438" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M438" s="5"/>
+    </row>
+    <row r="439" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M439" s="5"/>
+    </row>
+    <row r="440" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M440" s="5"/>
+    </row>
+    <row r="441" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M441" s="5"/>
+    </row>
+    <row r="442" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M442" s="5"/>
+    </row>
+    <row r="443" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M443" s="5"/>
+    </row>
+    <row r="444" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M444" s="5"/>
+    </row>
+    <row r="445" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M445" s="5"/>
+    </row>
+    <row r="446" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M446" s="5"/>
+    </row>
+    <row r="447" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M447" s="5"/>
+    </row>
+    <row r="448" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M448" s="5"/>
+    </row>
+    <row r="449" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M449" s="5"/>
+    </row>
+    <row r="450" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M450" s="5"/>
+    </row>
+    <row r="451" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M451" s="5"/>
+    </row>
+    <row r="452" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M452" s="5"/>
+    </row>
+    <row r="453" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M453" s="5"/>
+    </row>
+    <row r="454" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M454" s="5"/>
+    </row>
+    <row r="455" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M455" s="5"/>
+    </row>
+    <row r="456" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M456" s="5"/>
+    </row>
+    <row r="457" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M457" s="5"/>
+    </row>
+    <row r="458" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M458" s="5"/>
+    </row>
+    <row r="459" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M459" s="5"/>
+    </row>
+    <row r="460" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M460" s="5"/>
+    </row>
+    <row r="461" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M461" s="5"/>
+    </row>
+    <row r="462" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M462" s="5"/>
+    </row>
+    <row r="463" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M463" s="5"/>
+    </row>
+    <row r="464" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M464" s="5"/>
+    </row>
+    <row r="465" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M465" s="5"/>
+    </row>
+    <row r="466" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M466" s="5"/>
+    </row>
+    <row r="467" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M467" s="5"/>
+    </row>
+    <row r="468" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M468" s="5"/>
+    </row>
+    <row r="469" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M469" s="5"/>
+    </row>
+    <row r="470" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M470" s="5"/>
+    </row>
+    <row r="471" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M471" s="5"/>
+    </row>
+    <row r="472" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M472" s="5"/>
+    </row>
+    <row r="473" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M473" s="5"/>
+    </row>
+    <row r="474" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M474" s="5"/>
+    </row>
+    <row r="475" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M475" s="5"/>
+    </row>
+    <row r="476" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M476" s="5"/>
+    </row>
+    <row r="477" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M477" s="5"/>
+    </row>
+    <row r="478" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M478" s="5"/>
+    </row>
+    <row r="479" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M479" s="5"/>
+    </row>
+    <row r="480" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M480" s="5"/>
+    </row>
+    <row r="481" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M481" s="5"/>
+    </row>
+    <row r="482" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M482" s="5"/>
+    </row>
+    <row r="483" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M483" s="5"/>
+    </row>
+    <row r="484" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M484" s="5"/>
+    </row>
+    <row r="485" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M485" s="5"/>
+    </row>
+    <row r="486" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M486" s="5"/>
+    </row>
+    <row r="487" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M487" s="5"/>
+    </row>
+    <row r="488" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M488" s="5"/>
+    </row>
+    <row r="489" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M489" s="5"/>
+    </row>
+    <row r="490" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M490" s="5"/>
+    </row>
+    <row r="491" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M491" s="5"/>
+    </row>
+    <row r="492" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M492" s="5"/>
+    </row>
+    <row r="493" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M493" s="5"/>
+    </row>
+    <row r="494" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M494" s="5"/>
+    </row>
+    <row r="495" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M495" s="5"/>
+    </row>
+    <row r="496" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M496" s="5"/>
+    </row>
+    <row r="497" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M497" s="5"/>
+    </row>
+    <row r="498" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M498" s="5"/>
+    </row>
+    <row r="499" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M499" s="5"/>
+    </row>
+    <row r="500" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M500" s="5"/>
+    </row>
+    <row r="501" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M501" s="5"/>
+    </row>
+    <row r="502" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M502" s="5"/>
+    </row>
+    <row r="503" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M503" s="5"/>
+    </row>
+    <row r="504" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M504" s="5"/>
+    </row>
+    <row r="505" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M505" s="5"/>
+    </row>
+    <row r="506" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M506" s="5"/>
+    </row>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M507" s="5"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M508" s="5"/>
+    </row>
+    <row r="509" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M509" s="5"/>
+    </row>
+    <row r="510" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M510" s="5"/>
+    </row>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M511" s="5"/>
+    </row>
+    <row r="512" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M512" s="5"/>
+    </row>
+    <row r="513" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M513" s="5"/>
+    </row>
+    <row r="514" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M514" s="5"/>
+    </row>
+    <row r="515" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M515" s="5"/>
+    </row>
+    <row r="516" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M516" s="5"/>
+    </row>
+    <row r="517" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M517" s="5"/>
+    </row>
+    <row r="518" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M518" s="5"/>
+    </row>
+    <row r="519" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M519" s="5"/>
+    </row>
+    <row r="520" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M520" s="5"/>
+    </row>
+    <row r="521" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M521" s="5"/>
+    </row>
+    <row r="522" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M522" s="5"/>
+    </row>
+    <row r="523" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M523" s="5"/>
+    </row>
+    <row r="524" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M524" s="5"/>
+    </row>
+    <row r="525" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M525" s="5"/>
+    </row>
+    <row r="526" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M526" s="5"/>
+    </row>
+    <row r="527" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M527" s="5"/>
+    </row>
+    <row r="528" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M528" s="5"/>
+    </row>
+    <row r="529" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M529" s="5"/>
+    </row>
+    <row r="530" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M530" s="5"/>
+    </row>
+    <row r="531" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M531" s="5"/>
+    </row>
+    <row r="532" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M532" s="5"/>
+    </row>
+    <row r="533" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M533" s="5"/>
+    </row>
+    <row r="534" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M534" s="5"/>
+    </row>
+    <row r="535" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M535" s="5"/>
+    </row>
+    <row r="536" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M536" s="5"/>
+    </row>
+    <row r="537" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M537" s="5"/>
+    </row>
+    <row r="538" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M538" s="5"/>
+    </row>
+    <row r="539" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M539" s="5"/>
+    </row>
+    <row r="540" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M540" s="5"/>
+    </row>
+    <row r="541" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M541" s="5"/>
+    </row>
+    <row r="542" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M542" s="5"/>
+    </row>
+    <row r="543" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M543" s="5"/>
+    </row>
+    <row r="544" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M544" s="5"/>
+    </row>
+    <row r="545" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M545" s="5"/>
+    </row>
+    <row r="546" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M546" s="5"/>
+    </row>
+    <row r="547" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M547" s="5"/>
+    </row>
+    <row r="548" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M548" s="5"/>
+    </row>
+    <row r="549" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M549" s="5"/>
+    </row>
+    <row r="550" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M550" s="5"/>
+    </row>
+    <row r="551" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M551" s="5"/>
+    </row>
+    <row r="552" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M552" s="5"/>
+    </row>
+    <row r="553" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M553" s="5"/>
+    </row>
+    <row r="554" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M554" s="5"/>
+    </row>
+    <row r="555" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M555" s="5"/>
+    </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M556" s="5"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M557" s="5"/>
+    </row>
+    <row r="558" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M558" s="5"/>
+    </row>
+    <row r="559" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M559" s="5"/>
+    </row>
+    <row r="560" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M560" s="5"/>
+    </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M561" s="5"/>
+    </row>
+    <row r="562" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M562" s="5"/>
+    </row>
+    <row r="563" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M563" s="5"/>
+    </row>
+    <row r="564" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M564" s="5"/>
+    </row>
+    <row r="565" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M565" s="5"/>
+    </row>
+    <row r="566" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M566" s="5"/>
+    </row>
+    <row r="567" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M567" s="5"/>
+    </row>
+    <row r="568" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M568" s="5"/>
+    </row>
+    <row r="569" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M569" s="5"/>
+    </row>
+    <row r="570" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M570" s="5"/>
+    </row>
+    <row r="571" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M571" s="5"/>
+    </row>
+    <row r="572" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M572" s="5"/>
+    </row>
+    <row r="573" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M573" s="5"/>
+    </row>
+    <row r="574" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M574" s="5"/>
+    </row>
+    <row r="575" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M575" s="5"/>
+    </row>
+    <row r="576" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M576" s="5"/>
+    </row>
+    <row r="577" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M577" s="5"/>
+    </row>
+    <row r="578" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M578" s="5"/>
+    </row>
+    <row r="579" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M579" s="5"/>
+    </row>
+    <row r="580" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M580" s="5"/>
+    </row>
+    <row r="581" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M581" s="5"/>
+    </row>
+    <row r="582" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M582" s="5"/>
+    </row>
+    <row r="583" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M583" s="5"/>
+    </row>
+    <row r="584" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M584" s="5"/>
+    </row>
+    <row r="585" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M585" s="5"/>
+    </row>
+    <row r="586" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M586" s="5"/>
+    </row>
+    <row r="587" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M587" s="5"/>
+    </row>
+    <row r="588" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M588" s="5"/>
+    </row>
+    <row r="589" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M589" s="5"/>
+    </row>
+    <row r="590" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M590" s="5"/>
+    </row>
+    <row r="591" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M591" s="5"/>
+    </row>
+    <row r="592" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M592" s="5"/>
+    </row>
+    <row r="593" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M593" s="5"/>
+    </row>
+    <row r="594" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M594" s="5"/>
+    </row>
+    <row r="595" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M595" s="5"/>
+    </row>
+    <row r="596" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M596" s="5"/>
+    </row>
+    <row r="597" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M597" s="5"/>
+    </row>
+    <row r="598" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M598" s="5"/>
+    </row>
+    <row r="599" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M599" s="5"/>
+    </row>
+    <row r="600" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M600" s="5"/>
+    </row>
+    <row r="601" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M601" s="5"/>
+    </row>
+    <row r="602" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M602" s="5"/>
+    </row>
+    <row r="603" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M603" s="5"/>
+    </row>
+    <row r="604" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M604" s="5"/>
+    </row>
+    <row r="605" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M605" s="5"/>
+    </row>
+    <row r="606" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M606" s="5"/>
+    </row>
+    <row r="607" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M607" s="5"/>
+    </row>
+    <row r="608" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M608" s="5"/>
+    </row>
+    <row r="609" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M609" s="5"/>
+    </row>
+    <row r="610" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M610" s="5"/>
+    </row>
+    <row r="611" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M611" s="5"/>
+    </row>
+    <row r="612" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M612" s="5"/>
+    </row>
+    <row r="613" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M613" s="5"/>
+    </row>
+    <row r="614" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M614" s="5"/>
+    </row>
+    <row r="615" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M615" s="5"/>
+    </row>
+    <row r="616" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M616" s="5"/>
+    </row>
+    <row r="617" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M617" s="5"/>
+    </row>
+    <row r="618" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M618" s="5"/>
+    </row>
+    <row r="619" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M619" s="5"/>
+    </row>
+    <row r="620" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M620" s="5"/>
+    </row>
+    <row r="621" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M621" s="5"/>
+    </row>
+    <row r="622" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M622" s="5"/>
+    </row>
+    <row r="623" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M623" s="5"/>
+    </row>
+    <row r="624" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M624" s="5"/>
+    </row>
+    <row r="625" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M625" s="5"/>
+    </row>
+    <row r="626" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M626" s="5"/>
+    </row>
+    <row r="627" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M627" s="5"/>
+    </row>
+    <row r="628" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M628" s="5"/>
+    </row>
+    <row r="629" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M629" s="5"/>
+    </row>
+    <row r="630" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M630" s="5"/>
+    </row>
+    <row r="631" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M631" s="5"/>
+    </row>
+    <row r="632" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M632" s="5"/>
+    </row>
+    <row r="633" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M633" s="5"/>
+    </row>
+    <row r="634" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M634" s="5"/>
+    </row>
+    <row r="635" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M635" s="5"/>
+    </row>
+    <row r="636" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M636" s="5"/>
+    </row>
+    <row r="637" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M637" s="5"/>
+    </row>
+    <row r="638" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M638" s="5"/>
+    </row>
+    <row r="639" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M639" s="5"/>
+    </row>
+    <row r="640" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M640" s="5"/>
+    </row>
+    <row r="641" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M641" s="5"/>
+    </row>
+    <row r="642" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M642" s="5"/>
+    </row>
+    <row r="643" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M643" s="5"/>
+    </row>
+    <row r="644" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M644" s="5"/>
+    </row>
+    <row r="645" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M645" s="5"/>
+    </row>
+    <row r="646" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M646" s="5"/>
+    </row>
+    <row r="647" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M647" s="5"/>
+    </row>
+    <row r="648" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M648" s="5"/>
+    </row>
+    <row r="649" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M649" s="5"/>
+    </row>
+    <row r="650" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M650" s="5"/>
+    </row>
+    <row r="651" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M651" s="5"/>
+    </row>
+    <row r="652" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M652" s="5"/>
+    </row>
+    <row r="653" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M653" s="5"/>
+    </row>
+    <row r="654" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M654" s="5"/>
+    </row>
+    <row r="655" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M655" s="5"/>
+    </row>
+    <row r="656" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M656" s="5"/>
+    </row>
+    <row r="657" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M657" s="5"/>
+    </row>
+    <row r="658" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M658" s="5"/>
+    </row>
+    <row r="659" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M659" s="5"/>
+    </row>
+    <row r="660" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M660" s="5"/>
+    </row>
+    <row r="661" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M661" s="5"/>
+    </row>
+    <row r="662" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M662" s="5"/>
+    </row>
+    <row r="663" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M663" s="5"/>
+    </row>
+    <row r="664" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M664" s="5"/>
+    </row>
+    <row r="665" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M665" s="5"/>
+    </row>
+    <row r="666" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M666" s="5"/>
+    </row>
+    <row r="667" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M667" s="5"/>
+    </row>
+    <row r="668" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M668" s="5"/>
+    </row>
+    <row r="669" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M669" s="5"/>
+    </row>
+    <row r="670" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M670" s="5"/>
+    </row>
+    <row r="671" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M671" s="5"/>
+    </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M672" s="5"/>
+    </row>
+    <row r="673" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M673" s="5"/>
+    </row>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M674" s="5"/>
+    </row>
+    <row r="675" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M675" s="5"/>
+    </row>
+    <row r="676" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M676" s="5"/>
+    </row>
+    <row r="677" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M677" s="5"/>
+    </row>
+    <row r="678" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M678" s="5"/>
+    </row>
+    <row r="679" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M679" s="5"/>
+    </row>
+    <row r="680" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M680" s="5"/>
+    </row>
+    <row r="681" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M681" s="5"/>
+    </row>
+    <row r="682" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M682" s="5"/>
+    </row>
+    <row r="683" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M683" s="5"/>
+    </row>
+    <row r="684" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M684" s="5"/>
+    </row>
+    <row r="685" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M685" s="5"/>
+    </row>
+    <row r="686" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M686" s="5"/>
+    </row>
+    <row r="687" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M687" s="5"/>
+    </row>
+    <row r="688" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M688" s="5"/>
+    </row>
+    <row r="689" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M689" s="5"/>
+    </row>
+    <row r="690" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M690" s="5"/>
+    </row>
+    <row r="691" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M691" s="5"/>
+    </row>
+    <row r="692" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M692" s="5"/>
+    </row>
+    <row r="693" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M693" s="5"/>
+    </row>
+    <row r="694" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M694" s="5"/>
+    </row>
+    <row r="695" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M695" s="5"/>
+    </row>
+    <row r="696" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M696" s="5"/>
+    </row>
+    <row r="697" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M697" s="5"/>
+    </row>
+    <row r="698" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M698" s="5"/>
+    </row>
+    <row r="699" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M699" s="5"/>
+    </row>
+    <row r="700" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M700" s="5"/>
+    </row>
+    <row r="701" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M701" s="5"/>
+    </row>
+    <row r="702" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M702" s="5"/>
+    </row>
+    <row r="703" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M703" s="5"/>
+    </row>
+    <row r="704" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M704" s="5"/>
+    </row>
+    <row r="705" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M705" s="5"/>
+    </row>
+    <row r="706" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M706" s="5"/>
+    </row>
+    <row r="707" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M707" s="5"/>
+    </row>
+    <row r="708" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M708" s="5"/>
+    </row>
+    <row r="709" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M709" s="5"/>
+    </row>
+    <row r="710" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M710" s="5"/>
+    </row>
+    <row r="711" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M711" s="5"/>
+    </row>
+    <row r="712" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M712" s="5"/>
+    </row>
+    <row r="713" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M713" s="5"/>
+    </row>
+    <row r="714" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M714" s="5"/>
+    </row>
+    <row r="715" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M715" s="5"/>
+    </row>
+    <row r="716" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M716" s="5"/>
+    </row>
+    <row r="717" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M717" s="5"/>
+    </row>
+    <row r="718" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M718" s="5"/>
+    </row>
+    <row r="719" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M719" s="5"/>
+    </row>
+    <row r="720" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M720" s="5"/>
+    </row>
+    <row r="721" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M721" s="5"/>
+    </row>
+    <row r="722" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M722" s="5"/>
+    </row>
+    <row r="723" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M723" s="5"/>
+    </row>
+    <row r="724" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M724" s="5"/>
+    </row>
+    <row r="725" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M725" s="5"/>
+    </row>
+    <row r="726" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M726" s="5"/>
+    </row>
+    <row r="727" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M727" s="5"/>
+    </row>
+    <row r="728" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M728" s="5"/>
+    </row>
+    <row r="729" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M729" s="5"/>
+    </row>
+    <row r="730" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M730" s="5"/>
+    </row>
+    <row r="731" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M731" s="5"/>
+    </row>
+    <row r="732" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M732" s="5"/>
+    </row>
+    <row r="733" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M733" s="5"/>
+    </row>
+    <row r="734" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M734" s="5"/>
+    </row>
+    <row r="735" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M735" s="5"/>
+    </row>
+    <row r="736" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M736" s="5"/>
+    </row>
+    <row r="737" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M737" s="5"/>
+    </row>
+    <row r="738" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M738" s="5"/>
+    </row>
+    <row r="739" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M739" s="5"/>
+    </row>
+    <row r="740" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M740" s="5"/>
+    </row>
+    <row r="741" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M741" s="5"/>
+    </row>
+    <row r="742" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M742" s="5"/>
+    </row>
+    <row r="743" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M743" s="5"/>
+    </row>
+    <row r="744" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M744" s="5"/>
+    </row>
+    <row r="745" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M745" s="5"/>
+    </row>
+    <row r="746" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M746" s="5"/>
+    </row>
+    <row r="747" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M747" s="5"/>
+    </row>
+    <row r="748" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M748" s="5"/>
+    </row>
+    <row r="749" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M749" s="5"/>
+    </row>
+    <row r="750" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M750" s="5"/>
+    </row>
+    <row r="751" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M751" s="5"/>
+    </row>
+    <row r="752" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M752" s="5"/>
+    </row>
+    <row r="753" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M753" s="5"/>
+    </row>
+    <row r="754" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M754" s="5"/>
+    </row>
+    <row r="755" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M755" s="5"/>
+    </row>
+    <row r="756" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M756" s="5"/>
+    </row>
+    <row r="757" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M757" s="5"/>
+    </row>
+    <row r="758" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M758" s="5"/>
+    </row>
+    <row r="759" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M759" s="5"/>
+    </row>
+    <row r="760" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M760" s="5"/>
+    </row>
+    <row r="761" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M761" s="5"/>
+    </row>
+    <row r="762" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M762" s="5"/>
+    </row>
+    <row r="763" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M763" s="5"/>
+    </row>
+    <row r="764" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M764" s="5"/>
+    </row>
+    <row r="765" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M765" s="5"/>
+    </row>
+    <row r="766" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M766" s="5"/>
+    </row>
+    <row r="767" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M767" s="5"/>
+    </row>
+    <row r="768" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M768" s="5"/>
+    </row>
+    <row r="769" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M769" s="5"/>
+    </row>
+    <row r="770" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M770" s="5"/>
+    </row>
+    <row r="771" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M771" s="5"/>
+    </row>
+    <row r="772" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M772" s="5"/>
+    </row>
+    <row r="773" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M773" s="5"/>
+    </row>
+    <row r="774" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M774" s="5"/>
+    </row>
+    <row r="775" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M775" s="5"/>
+    </row>
+    <row r="776" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M776" s="5"/>
+    </row>
+    <row r="777" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M777" s="5"/>
+    </row>
+    <row r="778" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M778" s="5"/>
+    </row>
+    <row r="779" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M779" s="5"/>
+    </row>
+    <row r="780" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M780" s="5"/>
+    </row>
+    <row r="781" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M781" s="5"/>
+    </row>
+    <row r="782" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M782" s="5"/>
+    </row>
+    <row r="783" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M783" s="5"/>
+    </row>
+    <row r="784" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M784" s="5"/>
+    </row>
+    <row r="785" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M785" s="5"/>
+    </row>
+    <row r="786" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M786" s="5"/>
+    </row>
+    <row r="787" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M787" s="5"/>
+    </row>
+    <row r="788" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M788" s="5"/>
+    </row>
+    <row r="789" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M789" s="5"/>
+    </row>
+    <row r="790" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M790" s="5"/>
+    </row>
+    <row r="791" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M791" s="5"/>
+    </row>
+    <row r="792" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M792" s="5"/>
+    </row>
+    <row r="793" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M793" s="5"/>
+    </row>
+    <row r="794" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M794" s="5"/>
+    </row>
+    <row r="795" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M795" s="5"/>
+    </row>
+    <row r="796" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M796" s="5"/>
+    </row>
+    <row r="797" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M797" s="5"/>
+    </row>
+    <row r="798" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M798" s="5"/>
+    </row>
+    <row r="799" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M799" s="5"/>
+    </row>
+    <row r="800" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M800" s="5"/>
+    </row>
+    <row r="801" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M801" s="5"/>
+    </row>
+    <row r="802" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M802" s="5"/>
+    </row>
+    <row r="803" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M803" s="5"/>
+    </row>
+    <row r="804" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M804" s="5"/>
+    </row>
+    <row r="805" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M805" s="5"/>
+    </row>
+    <row r="806" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M806" s="5"/>
+    </row>
+    <row r="807" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M807" s="5"/>
+    </row>
+    <row r="808" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M808" s="5"/>
+    </row>
+    <row r="809" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M809" s="5"/>
+    </row>
+    <row r="810" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M810" s="5"/>
+    </row>
+    <row r="811" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M811" s="5"/>
+    </row>
+    <row r="812" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M812" s="5"/>
+    </row>
+    <row r="813" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M813" s="5"/>
+    </row>
+    <row r="814" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M814" s="5"/>
+    </row>
+    <row r="815" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M815" s="5"/>
+    </row>
+    <row r="816" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M816" s="5"/>
+    </row>
+    <row r="817" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M817" s="5"/>
+    </row>
+    <row r="818" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M818" s="5"/>
+    </row>
+    <row r="819" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M819" s="5"/>
+    </row>
+    <row r="820" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M820" s="5"/>
+    </row>
+    <row r="821" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M821" s="5"/>
+    </row>
+    <row r="822" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M822" s="5"/>
+    </row>
+    <row r="823" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M823" s="5"/>
+    </row>
+    <row r="824" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M824" s="5"/>
+    </row>
+    <row r="825" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M825" s="5"/>
+    </row>
+    <row r="826" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M826" s="5"/>
+    </row>
+    <row r="827" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M827" s="5"/>
+    </row>
+    <row r="828" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M828" s="5"/>
+    </row>
+    <row r="829" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M829" s="5"/>
+    </row>
+    <row r="830" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M830" s="5"/>
+    </row>
+    <row r="831" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M831" s="5"/>
+    </row>
+    <row r="832" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M832" s="5"/>
+    </row>
+    <row r="833" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M833" s="5"/>
+    </row>
+    <row r="834" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M834" s="5"/>
+    </row>
+    <row r="835" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M835" s="5"/>
+    </row>
+    <row r="836" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M836" s="5"/>
+    </row>
+    <row r="837" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M837" s="5"/>
+    </row>
+    <row r="838" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M838" s="5"/>
+    </row>
+    <row r="839" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M839" s="5"/>
+    </row>
+    <row r="840" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M840" s="5"/>
+    </row>
+    <row r="841" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M841" s="5"/>
+    </row>
+    <row r="842" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M842" s="5"/>
+    </row>
+    <row r="843" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M843" s="5"/>
+    </row>
+    <row r="844" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M844" s="5"/>
+    </row>
+    <row r="845" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M845" s="5"/>
+    </row>
+    <row r="846" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M846" s="5"/>
+    </row>
+    <row r="847" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M847" s="5"/>
+    </row>
+    <row r="848" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M848" s="5"/>
+    </row>
+    <row r="849" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M849" s="5"/>
+    </row>
+    <row r="850" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M850" s="5"/>
+    </row>
+    <row r="851" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M851" s="5"/>
+    </row>
+    <row r="852" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M852" s="5"/>
+    </row>
+    <row r="853" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M853" s="5"/>
+    </row>
+    <row r="854" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M854" s="5"/>
+    </row>
+    <row r="855" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M855" s="5"/>
+    </row>
+    <row r="856" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M856" s="5"/>
+    </row>
+    <row r="857" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M857" s="5"/>
+    </row>
+    <row r="858" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M858" s="5"/>
+    </row>
+    <row r="859" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M859" s="5"/>
+    </row>
+    <row r="860" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M860" s="5"/>
+    </row>
+    <row r="861" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M861" s="5"/>
+    </row>
+    <row r="862" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M862" s="5"/>
+    </row>
+    <row r="863" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M863" s="5"/>
+    </row>
+    <row r="864" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M864" s="5"/>
+    </row>
+    <row r="865" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M865" s="5"/>
+    </row>
+    <row r="866" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M866" s="5"/>
+    </row>
+    <row r="867" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M867" s="5"/>
+    </row>
+    <row r="868" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M868" s="5"/>
+    </row>
+    <row r="869" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M869" s="5"/>
+    </row>
+    <row r="870" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M870" s="5"/>
+    </row>
+    <row r="871" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M871" s="5"/>
+    </row>
+    <row r="872" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M872" s="5"/>
+    </row>
+    <row r="873" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M873" s="5"/>
+    </row>
+    <row r="874" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M874" s="5"/>
+    </row>
+    <row r="875" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M875" s="5"/>
+    </row>
+    <row r="876" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M876" s="5"/>
+    </row>
+    <row r="877" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M877" s="5"/>
+    </row>
+    <row r="878" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M878" s="5"/>
+    </row>
+    <row r="879" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M879" s="5"/>
+    </row>
+    <row r="880" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M880" s="5"/>
+    </row>
+    <row r="881" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M881" s="5"/>
+    </row>
+    <row r="882" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M882" s="5"/>
+    </row>
+    <row r="883" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M883" s="5"/>
+    </row>
+    <row r="884" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M884" s="5"/>
+    </row>
+    <row r="885" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M885" s="5"/>
+    </row>
+    <row r="886" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M886" s="5"/>
+    </row>
+    <row r="887" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M887" s="5"/>
+    </row>
+    <row r="888" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M888" s="5"/>
+    </row>
+    <row r="889" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M889" s="5"/>
+    </row>
+    <row r="890" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M890" s="5"/>
+    </row>
+    <row r="891" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M891" s="5"/>
+    </row>
+    <row r="892" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M892" s="5"/>
+    </row>
+    <row r="893" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M893" s="5"/>
+    </row>
+    <row r="894" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M894" s="5"/>
+    </row>
+    <row r="895" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M895" s="5"/>
+    </row>
+    <row r="896" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M896" s="5"/>
+    </row>
+    <row r="897" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M897" s="5"/>
+    </row>
+    <row r="898" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M898" s="5"/>
+    </row>
+    <row r="899" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M899" s="5"/>
+    </row>
+    <row r="900" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M900" s="5"/>
+    </row>
+    <row r="901" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M901" s="5"/>
+    </row>
+    <row r="902" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M902" s="5"/>
+    </row>
+    <row r="903" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M903" s="5"/>
+    </row>
+    <row r="904" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M904" s="5"/>
+    </row>
+    <row r="905" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M905" s="5"/>
+    </row>
+    <row r="906" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M906" s="5"/>
+    </row>
+    <row r="907" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M907" s="5"/>
+    </row>
+    <row r="908" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M908" s="5"/>
+    </row>
+    <row r="909" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M909" s="5"/>
+    </row>
+    <row r="910" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M910" s="5"/>
+    </row>
+    <row r="911" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M911" s="5"/>
+    </row>
+    <row r="912" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M912" s="5"/>
+    </row>
+    <row r="913" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M913" s="5"/>
+    </row>
+    <row r="914" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M914" s="5"/>
+    </row>
+    <row r="915" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M915" s="5"/>
+    </row>
+    <row r="916" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M916" s="5"/>
+    </row>
+    <row r="917" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M917" s="5"/>
+    </row>
+    <row r="918" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M918" s="5"/>
+    </row>
+    <row r="919" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M919" s="5"/>
+    </row>
+    <row r="920" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M920" s="5"/>
+    </row>
+    <row r="921" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M921" s="5"/>
+    </row>
+    <row r="922" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M922" s="5"/>
+    </row>
+    <row r="923" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M923" s="5"/>
+    </row>
+    <row r="924" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M924" s="5"/>
+    </row>
+    <row r="925" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M925" s="5"/>
+    </row>
+    <row r="926" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M926" s="5"/>
+    </row>
+    <row r="927" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M927" s="5"/>
+    </row>
+    <row r="928" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M928" s="5"/>
+    </row>
+    <row r="929" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M929" s="5"/>
+    </row>
+    <row r="930" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M930" s="5"/>
+    </row>
+    <row r="931" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M931" s="5"/>
+    </row>
+    <row r="932" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M932" s="5"/>
+    </row>
+    <row r="933" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M933" s="5"/>
+    </row>
+    <row r="934" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M934" s="5"/>
+    </row>
+    <row r="935" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M935" s="5"/>
+    </row>
+    <row r="936" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M936" s="5"/>
+    </row>
+    <row r="937" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M937" s="5"/>
+    </row>
+    <row r="938" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M938" s="5"/>
+    </row>
+    <row r="939" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M939" s="5"/>
+    </row>
+    <row r="940" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M940" s="5"/>
+    </row>
+    <row r="941" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M941" s="5"/>
+    </row>
+    <row r="942" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M942" s="5"/>
+    </row>
+    <row r="943" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M943" s="5"/>
+    </row>
+    <row r="944" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M944" s="5"/>
+    </row>
+    <row r="945" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M945" s="5"/>
+    </row>
+    <row r="946" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M946" s="5"/>
+    </row>
+    <row r="947" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M947" s="5"/>
+    </row>
+    <row r="948" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M948" s="5"/>
+    </row>
+    <row r="949" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M949" s="5"/>
+    </row>
+    <row r="950" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M950" s="5"/>
+    </row>
+    <row r="951" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M951" s="5"/>
+    </row>
+    <row r="952" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M952" s="5"/>
+    </row>
+    <row r="953" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M953" s="5"/>
+    </row>
+    <row r="954" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M954" s="5"/>
+    </row>
+    <row r="955" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M955" s="5"/>
+    </row>
+    <row r="956" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M956" s="5"/>
+    </row>
+    <row r="957" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M957" s="5"/>
+    </row>
+    <row r="958" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M958" s="5"/>
+    </row>
+    <row r="959" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M959" s="5"/>
+    </row>
+    <row r="960" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M960" s="5"/>
+    </row>
+    <row r="961" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M961" s="5"/>
+    </row>
+    <row r="962" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M962" s="5"/>
+    </row>
+    <row r="963" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M963" s="5"/>
+    </row>
+    <row r="964" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M964" s="5"/>
+    </row>
+    <row r="965" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M965" s="5"/>
+    </row>
+    <row r="966" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M966" s="5"/>
+    </row>
+    <row r="967" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M967" s="5"/>
+    </row>
+    <row r="968" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M968" s="5"/>
+    </row>
+    <row r="969" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M969" s="5"/>
+    </row>
+    <row r="970" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M970" s="5"/>
+    </row>
+    <row r="971" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M971" s="5"/>
+    </row>
+    <row r="972" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M972" s="5"/>
+    </row>
+    <row r="973" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M973" s="5"/>
+    </row>
+    <row r="974" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M974" s="5"/>
+    </row>
+    <row r="975" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M975" s="5"/>
+    </row>
+    <row r="976" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M976" s="5"/>
+    </row>
+    <row r="977" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M977" s="5"/>
+    </row>
+    <row r="978" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M978" s="5"/>
+    </row>
+    <row r="979" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M979" s="5"/>
+    </row>
+    <row r="980" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M980" s="5"/>
+    </row>
+    <row r="981" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M981" s="5"/>
+    </row>
+    <row r="982" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M982" s="5"/>
+    </row>
+    <row r="983" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M983" s="5"/>
+    </row>
+    <row r="984" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M984" s="5"/>
+    </row>
+    <row r="985" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M985" s="5"/>
+    </row>
+    <row r="986" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M986" s="5"/>
+    </row>
+    <row r="987" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M987" s="5"/>
+    </row>
+    <row r="988" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M988" s="5"/>
+    </row>
+    <row r="989" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M989" s="5"/>
+    </row>
+    <row r="990" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M990" s="5"/>
+    </row>
+    <row r="991" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M991" s="5"/>
+    </row>
+    <row r="992" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M992" s="5"/>
+    </row>
+    <row r="993" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M993" s="5"/>
+    </row>
+    <row r="994" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M994" s="5"/>
+    </row>
+    <row r="995" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M995" s="5"/>
+    </row>
+    <row r="996" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M996" s="5"/>
+    </row>
+    <row r="997" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M997" s="5"/>
+    </row>
+    <row r="998" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M998" s="5"/>
+    </row>
+    <row r="999" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M999" s="5"/>
+    </row>
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1000" s="5"/>
+    </row>
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1001" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:M93">
+    <sortCondition descending="1" ref="L2:L93"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data spreadsheets/film.xlsx
+++ b/data spreadsheets/film.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BCE33-6891-4FA7-8C3B-8EDCE6F55205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7405B0-59A3-410E-9FBD-8C16103F2502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55905" yWindow="2970" windowWidth="3450" windowHeight="1785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -347,19 +347,106 @@
     <t>R</t>
   </si>
   <si>
-    <t>ALSO DIRECTED BY JEROME ROBBINS</t>
-  </si>
-  <si>
-    <t>ALSO DIRECTED BY ETHAN COEN</t>
-  </si>
-  <si>
-    <t>image paths</t>
-  </si>
-  <si>
-    <t>/imgs/logo.png</t>
-  </si>
-  <si>
-    <t>con</t>
+    <t>image_path</t>
+  </si>
+  <si>
+    <t>/imgs/_.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/wings.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/broadway.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/all_quiet.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/cimarron.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/grand_hotel.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/cavalcade.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/it_happened.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/mutiny.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/great_ziegfield.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/emile_zola.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/cant_take_it.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/gone_wind.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/rebecca.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/how_green.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/miniver.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/casablanca.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/going_my_way.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/lost_weekend.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/best_years.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/gents_agree.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/hamlet.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/kings_men.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/all_about_eve.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/am_in_paris.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/greatest_show.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/here_eternity.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/waterfront.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/marty.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/around_world.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/river_kwai.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/gigi.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/ben_hur.jpg</t>
   </si>
 </sst>
 </file>
@@ -714,15 +801,17 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I93" sqref="B1:I93"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="42.734375" customWidth="1"/>
-    <col min="3" max="3" width="13.47265625" customWidth="1"/>
-    <col min="4" max="4" width="15.05078125" customWidth="1"/>
-    <col min="9" max="9" width="12.7890625" customWidth="1"/>
+    <col min="2" max="2" width="43.68359375" customWidth="1"/>
+    <col min="3" max="3" width="13.47265625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.05078125" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.3671875" customWidth="1"/>
+    <col min="10" max="10" width="18.83984375" customWidth="1"/>
     <col min="13" max="13" width="34.89453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,11 +841,9 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
@@ -784,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -811,6 +898,9 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -835,6 +925,9 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
@@ -859,6 +952,9 @@
       <c r="H5">
         <v>3</v>
       </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
@@ -883,6 +979,9 @@
       <c r="H6">
         <v>4</v>
       </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -907,6 +1006,9 @@
       <c r="H7">
         <v>4</v>
       </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
@@ -931,6 +1033,9 @@
       <c r="H8">
         <v>5</v>
       </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -955,6 +1060,9 @@
       <c r="H9">
         <v>4</v>
       </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -979,6 +1087,9 @@
       <c r="H10">
         <v>2</v>
       </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
@@ -1003,6 +1114,9 @@
       <c r="H11">
         <v>4</v>
       </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
@@ -1027,6 +1141,9 @@
       <c r="H12">
         <v>5</v>
       </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
@@ -1051,6 +1168,9 @@
       <c r="H13">
         <v>4</v>
       </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
@@ -1075,6 +1195,9 @@
       <c r="H14">
         <v>4</v>
       </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
@@ -1099,6 +1222,9 @@
       <c r="H15">
         <v>4</v>
       </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -1123,8 +1249,11 @@
       <c r="H16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1150,8 +1279,11 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1174,8 +1306,11 @@
       <c r="H18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1198,8 +1333,11 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1222,8 +1360,11 @@
       <c r="H20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1246,8 +1387,11 @@
       <c r="H21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1270,8 +1414,11 @@
       <c r="H22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1294,8 +1441,11 @@
       <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1318,8 +1468,11 @@
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1342,8 +1495,11 @@
       <c r="H25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1366,8 +1522,11 @@
       <c r="H26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1390,8 +1549,11 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1414,8 +1576,11 @@
       <c r="H28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1438,8 +1603,11 @@
       <c r="H29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1465,8 +1633,11 @@
       <c r="H30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1492,8 +1663,11 @@
       <c r="H31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1518,6 +1692,9 @@
       </c>
       <c r="H32">
         <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1546,6 +1723,9 @@
       <c r="H33">
         <v>4</v>
       </c>
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -1570,6 +1750,9 @@
       <c r="H34">
         <v>5</v>
       </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
@@ -1598,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1627,6 +1810,9 @@
       <c r="H36">
         <v>4</v>
       </c>
+      <c r="I36" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
@@ -1651,6 +1837,9 @@
       <c r="H37">
         <v>6</v>
       </c>
+      <c r="I37" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
@@ -1678,6 +1867,9 @@
       <c r="H38">
         <v>2</v>
       </c>
+      <c r="I38" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
@@ -1705,6 +1897,9 @@
       <c r="H39">
         <v>2</v>
       </c>
+      <c r="I39" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -1732,6 +1927,9 @@
       <c r="H40">
         <v>4</v>
       </c>
+      <c r="I40" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
@@ -1756,6 +1954,9 @@
       <c r="H41">
         <v>8</v>
       </c>
+      <c r="I41" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
@@ -1783,6 +1984,9 @@
       <c r="H42">
         <v>2</v>
       </c>
+      <c r="I42" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
@@ -1810,6 +2014,9 @@
       <c r="H43">
         <v>4</v>
       </c>
+      <c r="I43" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
@@ -1837,6 +2044,9 @@
       <c r="H44">
         <v>1</v>
       </c>
+      <c r="I44" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
@@ -1864,6 +2074,9 @@
       <c r="H45">
         <v>7</v>
       </c>
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -1891,6 +2104,9 @@
       <c r="H46">
         <v>8</v>
       </c>
+      <c r="I46" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
@@ -1918,6 +2134,9 @@
       <c r="H47">
         <v>8</v>
       </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
@@ -1945,8 +2164,11 @@
       <c r="H48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1972,8 +2194,11 @@
       <c r="H49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1999,8 +2224,11 @@
       <c r="H50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2026,8 +2254,11 @@
       <c r="H51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2053,8 +2284,11 @@
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2080,8 +2314,11 @@
       <c r="H53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2107,8 +2344,11 @@
       <c r="H54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2134,8 +2374,11 @@
       <c r="H55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2161,8 +2404,11 @@
       <c r="H56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2188,8 +2434,11 @@
       <c r="H57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2215,8 +2464,11 @@
       <c r="H58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2242,8 +2494,11 @@
       <c r="H59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2269,8 +2524,11 @@
       <c r="H60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2296,8 +2554,11 @@
       <c r="H61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2323,8 +2584,11 @@
       <c r="H62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2350,8 +2614,11 @@
       <c r="H63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2378,8 +2645,11 @@
       <c r="H64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2406,8 +2676,11 @@
       <c r="H65">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2434,8 +2707,11 @@
       <c r="H66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2462,8 +2738,11 @@
       <c r="H67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2490,8 +2769,11 @@
       <c r="H68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <f t="shared" ref="A69:A93" si="2" xml:space="preserve"> A68 + 1</f>
         <v>68</v>
@@ -2518,8 +2800,11 @@
       <c r="H69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -2546,8 +2831,11 @@
       <c r="H70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -2574,8 +2862,11 @@
       <c r="H71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -2602,8 +2893,11 @@
       <c r="H72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -2630,8 +2924,11 @@
       <c r="H73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -2657,8 +2954,11 @@
       <c r="H74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -2684,8 +2984,11 @@
       <c r="H75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -2711,8 +3014,11 @@
       <c r="H76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -2738,8 +3044,11 @@
       <c r="H77">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -2765,8 +3074,11 @@
       <c r="H78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2792,8 +3104,11 @@
       <c r="H79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -2818,6 +3133,9 @@
       </c>
       <c r="H80">
         <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2876,6 +3194,9 @@
       <c r="H82">
         <v>4</v>
       </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
@@ -2903,6 +3224,9 @@
       <c r="H83">
         <v>1</v>
       </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
@@ -2931,6 +3255,9 @@
       <c r="H84">
         <v>4</v>
       </c>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
@@ -2959,6 +3286,9 @@
       <c r="H85">
         <v>4</v>
       </c>
+      <c r="I85" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
@@ -2987,6 +3317,9 @@
       <c r="H86">
         <v>4</v>
       </c>
+      <c r="I86" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
@@ -3015,8 +3348,11 @@
       <c r="H87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="I87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -3042,6 +3378,9 @@
       </c>
       <c r="H88">
         <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3071,6 +3410,9 @@
       <c r="H89">
         <v>4</v>
       </c>
+      <c r="I89" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
@@ -3099,6 +3441,9 @@
       <c r="H90">
         <v>4</v>
       </c>
+      <c r="I90" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
@@ -3127,6 +3472,9 @@
       <c r="H91">
         <v>4</v>
       </c>
+      <c r="I91" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
@@ -3155,6 +3503,9 @@
       <c r="H92">
         <v>6</v>
       </c>
+      <c r="I92" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
@@ -3182,6 +3533,9 @@
       </c>
       <c r="H93">
         <v>7</v>
+      </c>
+      <c r="I93" t="s">
+        <v>105</v>
       </c>
       <c r="M93" s="5"/>
     </row>

--- a/data spreadsheets/film.xlsx
+++ b/data spreadsheets/film.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7405B0-59A3-410E-9FBD-8C16103F2502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02816CB-7C65-4DB2-BF32-FB9F1657899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55905" yWindow="2970" windowWidth="3450" windowHeight="1785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55200" yWindow="4680" windowWidth="4860" windowHeight="1785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -350,9 +350,6 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>/imgs/_.jpg</t>
-  </si>
-  <si>
     <t>/imgs/wings.jpg</t>
   </si>
   <si>
@@ -447,6 +444,186 @@
   </si>
   <si>
     <t>/imgs/ben_hur.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/apartment.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/west_side_story.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/lawrence.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/tom_jones.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/my_fair_lady.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/sound_music.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/man_seasons.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/heat_night.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/oliver.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/midnight_cowboy.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/patton.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/french_conn.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/godfather.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/sting.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/godfather_2.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/cuckoos_nest.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/rocky.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/annie_hall.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/deer_hunter.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/kramer.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/ord_peop.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/chariots.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/gandhi.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/terms_of_end.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/amadeus.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/out_africa.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/platoon.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/last_emp.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/rain_man.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/miss_daisy.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/dances_wolves.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/silence_lambs.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/unforgiven.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/schindler.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/forrest_gump.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/braveheart.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/eng_patient.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/titanic.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/shakespeare.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/am_beauty.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/gladiator.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/beaut_mind.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/chicago.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/return_king.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/mill_baby.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/crash.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/departed.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/no_country.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/slumdog.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/hurt_locker.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/kings_speech.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/artist.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/argo.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/12_years.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/birdman.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/spotlight.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/moonlight.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/shape_water.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/green_book.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/parasite.jpg</t>
   </si>
 </sst>
 </file>
@@ -800,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -871,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -899,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -926,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -953,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -980,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1007,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1034,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1061,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1088,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1115,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1142,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1169,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1196,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1223,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1250,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1280,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1307,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1334,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1361,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1388,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1415,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1442,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1469,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1496,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1523,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1550,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1577,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1604,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1634,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1664,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1694,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1724,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1751,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1781,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1811,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1838,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1868,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1898,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1928,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1955,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1985,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2015,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2045,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2075,7 +2252,7 @@
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2105,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2135,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2165,7 +2342,7 @@
         <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2195,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2225,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2255,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2285,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2315,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2345,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2375,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2405,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2435,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2465,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2495,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2525,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2555,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2585,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2615,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2646,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2677,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="I65" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2708,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2739,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2770,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2801,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2832,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2863,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2894,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2925,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2955,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2985,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3015,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3045,7 +3222,7 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3075,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3105,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3135,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3165,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3195,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3225,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3256,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3287,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3318,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3349,10 +3526,10 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -3380,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3411,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3442,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3473,7 +3650,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3504,7 +3681,7 @@
         <v>6</v>
       </c>
       <c r="I92" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3535,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="I93" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="M93" s="5"/>
     </row>

--- a/data spreadsheets/film.xlsx
+++ b/data spreadsheets/film.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalieduerr/Local Documents/cinefile/data spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02816CB-7C65-4DB2-BF32-FB9F1657899E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49132CDF-FB17-974F-BA15-C83EB09CD11F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55200" yWindow="4680" windowWidth="4860" windowHeight="1785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,22 +977,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.68359375" customWidth="1"/>
-    <col min="3" max="3" width="13.47265625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.05078125" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.3671875" customWidth="1"/>
-    <col min="10" max="10" width="18.83984375" customWidth="1"/>
-    <col min="13" max="13" width="34.89453125" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <f xml:space="preserve"> A2 + 1</f>
         <v>2</v>
@@ -1079,7 +1079,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <f xml:space="preserve"> A3 + 1</f>
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0" xml:space="preserve"> A4 + 1</f>
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1160,7 +1160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1187,7 +1187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1214,7 +1214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1241,7 +1241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1268,7 +1268,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1295,7 +1295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1322,7 +1322,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1349,7 +1349,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1376,7 +1376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1403,7 +1403,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1430,7 +1430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1460,7 +1460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1487,7 +1487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1514,7 +1514,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1568,7 +1568,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1595,7 +1595,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1622,7 +1622,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1649,7 +1649,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1676,7 +1676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1703,7 +1703,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1730,7 +1730,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1757,7 +1757,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1784,7 +1784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1814,7 +1814,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1844,7 +1844,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1874,7 +1874,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1904,7 +1904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1931,7 +1931,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1961,7 +1961,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1991,7 +1991,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2018,7 +2018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2048,7 +2048,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2078,7 +2078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2108,7 +2108,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2135,7 +2135,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2165,7 +2165,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2195,7 +2195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2225,7 +2225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2255,7 +2255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2285,7 +2285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2315,7 +2315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2345,7 +2345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2375,7 +2375,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2405,7 +2405,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2435,7 +2435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2465,7 +2465,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2495,7 +2495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2525,7 +2525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2555,7 +2555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2585,7 +2585,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2615,7 +2615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2645,7 +2645,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2675,7 +2675,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2705,7 +2705,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2735,7 +2735,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2765,7 +2765,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2795,7 +2795,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2826,7 +2826,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2857,7 +2857,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2888,7 +2888,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2919,7 +2919,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2950,7 +2950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" ref="A69:A93" si="2" xml:space="preserve"> A68 + 1</f>
         <v>68</v>
@@ -2981,7 +2981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -3012,7 +3012,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -3043,7 +3043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -3074,7 +3074,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -3105,7 +3105,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -3135,7 +3135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -3165,7 +3165,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -3195,7 +3195,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -3255,7 +3255,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -3285,7 +3285,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -3315,7 +3315,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -3345,7 +3345,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -3375,7 +3375,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -3405,7 +3405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -3436,7 +3436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -3467,7 +3467,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -3498,7 +3498,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -3529,7 +3529,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -3560,7 +3560,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -3591,7 +3591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -3622,7 +3622,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -3653,7 +3653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -3684,7 +3684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -3716,2732 +3716,2732 @@
       </c>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M97" s="5"/>
     </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M105" s="5"/>
     </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M106" s="5"/>
     </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M107" s="5"/>
     </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M108" s="5"/>
     </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M109" s="5"/>
     </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M114" s="5"/>
     </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M115" s="5"/>
     </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M116" s="5"/>
     </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M117" s="5"/>
     </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M118" s="5"/>
     </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M119" s="5"/>
     </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M123" s="5"/>
     </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M124" s="5"/>
     </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M125" s="5"/>
     </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M126" s="5"/>
     </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M127" s="5"/>
     </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M128" s="5"/>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M129" s="5"/>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M130" s="5"/>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M131" s="5"/>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M132" s="5"/>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M133" s="5"/>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M134" s="5"/>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M135" s="5"/>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M136" s="5"/>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M137" s="5"/>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M138" s="5"/>
     </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M139" s="5"/>
     </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M140" s="5"/>
     </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M141" s="5"/>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M142" s="5"/>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M143" s="5"/>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M144" s="5"/>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M145" s="5"/>
     </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M146" s="5"/>
     </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M147" s="5"/>
     </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M148" s="5"/>
     </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M149" s="5"/>
     </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M150" s="5"/>
     </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M151" s="5"/>
     </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M152" s="5"/>
     </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M153" s="5"/>
     </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M154" s="5"/>
     </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M155" s="5"/>
     </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M156" s="5"/>
     </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M157" s="5"/>
     </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M158" s="5"/>
     </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M161" s="5"/>
     </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M162" s="5"/>
     </row>
-    <row r="163" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M163" s="5"/>
     </row>
-    <row r="164" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M164" s="5"/>
     </row>
-    <row r="165" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M165" s="5"/>
     </row>
-    <row r="166" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M166" s="5"/>
     </row>
-    <row r="167" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M167" s="5"/>
     </row>
-    <row r="168" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M168" s="5"/>
     </row>
-    <row r="169" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M169" s="5"/>
     </row>
-    <row r="170" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M170" s="5"/>
     </row>
-    <row r="171" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M171" s="5"/>
     </row>
-    <row r="172" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M172" s="5"/>
     </row>
-    <row r="173" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M173" s="5"/>
     </row>
-    <row r="174" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M174" s="5"/>
     </row>
-    <row r="175" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M175" s="5"/>
     </row>
-    <row r="176" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M176" s="5"/>
     </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M177" s="5"/>
     </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M178" s="5"/>
     </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M179" s="5"/>
     </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M180" s="5"/>
     </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M181" s="5"/>
     </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M182" s="5"/>
     </row>
-    <row r="183" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M183" s="5"/>
     </row>
-    <row r="184" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M184" s="5"/>
     </row>
-    <row r="185" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M185" s="5"/>
     </row>
-    <row r="186" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M186" s="5"/>
     </row>
-    <row r="187" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M187" s="5"/>
     </row>
-    <row r="188" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M188" s="5"/>
     </row>
-    <row r="189" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M189" s="5"/>
     </row>
-    <row r="190" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M190" s="5"/>
     </row>
-    <row r="191" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M191" s="5"/>
     </row>
-    <row r="192" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M192" s="5"/>
     </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M193" s="5"/>
     </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M194" s="5"/>
     </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M195" s="5"/>
     </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M196" s="5"/>
     </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M197" s="5"/>
     </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M198" s="5"/>
     </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M199" s="5"/>
     </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M200" s="5"/>
     </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M201" s="5"/>
     </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M202" s="5"/>
     </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M203" s="5"/>
     </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M204" s="5"/>
     </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M205" s="5"/>
     </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M206" s="5"/>
     </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M207" s="5"/>
     </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M208" s="5"/>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M209" s="5"/>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M210" s="5"/>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M211" s="5"/>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M213" s="5"/>
     </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M214" s="5"/>
     </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M215" s="5"/>
     </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M216" s="5"/>
     </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M217" s="5"/>
     </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M218" s="5"/>
     </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M219" s="5"/>
     </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M220" s="5"/>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M221" s="5"/>
     </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M222" s="5"/>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M223" s="5"/>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M224" s="5"/>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M225" s="5"/>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M226" s="5"/>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M228" s="5"/>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M230" s="5"/>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M231" s="5"/>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M232" s="5"/>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M233" s="5"/>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M234" s="5"/>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M235" s="5"/>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M236" s="5"/>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M237" s="5"/>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M238" s="5"/>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M239" s="5"/>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M240" s="5"/>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M241" s="5"/>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M242" s="5"/>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M243" s="5"/>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M244" s="5"/>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M245" s="5"/>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M246" s="5"/>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M247" s="5"/>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M248" s="5"/>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M249" s="5"/>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M250" s="5"/>
     </row>
-    <row r="251" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M251" s="5"/>
     </row>
-    <row r="252" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M252" s="5"/>
     </row>
-    <row r="253" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M253" s="5"/>
     </row>
-    <row r="254" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M254" s="5"/>
     </row>
-    <row r="255" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M255" s="5"/>
     </row>
-    <row r="256" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M256" s="5"/>
     </row>
-    <row r="257" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M257" s="5"/>
     </row>
-    <row r="258" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M258" s="5"/>
     </row>
-    <row r="259" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M259" s="5"/>
     </row>
-    <row r="260" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M260" s="5"/>
     </row>
-    <row r="261" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M261" s="5"/>
     </row>
-    <row r="262" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M262" s="5"/>
     </row>
-    <row r="263" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M263" s="5"/>
     </row>
-    <row r="264" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M264" s="5"/>
     </row>
-    <row r="265" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M265" s="5"/>
     </row>
-    <row r="266" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M266" s="5"/>
     </row>
-    <row r="267" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M267" s="5"/>
     </row>
-    <row r="268" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M268" s="5"/>
     </row>
-    <row r="269" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M269" s="5"/>
     </row>
-    <row r="270" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M270" s="5"/>
     </row>
-    <row r="271" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M271" s="5"/>
     </row>
-    <row r="272" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M272" s="5"/>
     </row>
-    <row r="273" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M273" s="5"/>
     </row>
-    <row r="274" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M274" s="5"/>
     </row>
-    <row r="275" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M275" s="5"/>
     </row>
-    <row r="276" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M276" s="5"/>
     </row>
-    <row r="277" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M277" s="5"/>
     </row>
-    <row r="278" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M278" s="5"/>
     </row>
-    <row r="279" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M279" s="5"/>
     </row>
-    <row r="280" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M280" s="5"/>
     </row>
-    <row r="281" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M281" s="5"/>
     </row>
-    <row r="282" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M282" s="5"/>
     </row>
-    <row r="283" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M283" s="5"/>
     </row>
-    <row r="284" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M284" s="5"/>
     </row>
-    <row r="285" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M285" s="5"/>
     </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M286" s="5"/>
     </row>
-    <row r="287" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M287" s="5"/>
     </row>
-    <row r="288" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M288" s="5"/>
     </row>
-    <row r="289" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M289" s="5"/>
     </row>
-    <row r="290" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M290" s="5"/>
     </row>
-    <row r="291" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M291" s="5"/>
     </row>
-    <row r="292" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M292" s="5"/>
     </row>
-    <row r="293" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M293" s="5"/>
     </row>
-    <row r="294" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M294" s="5"/>
     </row>
-    <row r="295" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M295" s="5"/>
     </row>
-    <row r="296" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M296" s="5"/>
     </row>
-    <row r="297" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M297" s="5"/>
     </row>
-    <row r="298" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M298" s="5"/>
     </row>
-    <row r="299" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M299" s="5"/>
     </row>
-    <row r="300" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M300" s="5"/>
     </row>
-    <row r="301" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M301" s="5"/>
     </row>
-    <row r="302" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M302" s="5"/>
     </row>
-    <row r="303" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M303" s="5"/>
     </row>
-    <row r="304" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M304" s="5"/>
     </row>
-    <row r="305" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M305" s="5"/>
     </row>
-    <row r="306" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M306" s="5"/>
     </row>
-    <row r="307" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M307" s="5"/>
     </row>
-    <row r="308" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M308" s="5"/>
     </row>
-    <row r="309" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M309" s="5"/>
     </row>
-    <row r="310" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M310" s="5"/>
     </row>
-    <row r="311" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M311" s="5"/>
     </row>
-    <row r="312" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M312" s="5"/>
     </row>
-    <row r="313" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M313" s="5"/>
     </row>
-    <row r="314" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M314" s="5"/>
     </row>
-    <row r="315" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M315" s="5"/>
     </row>
-    <row r="316" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M316" s="5"/>
     </row>
-    <row r="317" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M317" s="5"/>
     </row>
-    <row r="318" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M318" s="5"/>
     </row>
-    <row r="319" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M319" s="5"/>
     </row>
-    <row r="320" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M320" s="5"/>
     </row>
-    <row r="321" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M321" s="5"/>
     </row>
-    <row r="322" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M322" s="5"/>
     </row>
-    <row r="323" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M323" s="5"/>
     </row>
-    <row r="324" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M324" s="5"/>
     </row>
-    <row r="325" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M325" s="5"/>
     </row>
-    <row r="326" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M326" s="5"/>
     </row>
-    <row r="327" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M327" s="5"/>
     </row>
-    <row r="328" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M328" s="5"/>
     </row>
-    <row r="329" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M329" s="5"/>
     </row>
-    <row r="330" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M330" s="5"/>
     </row>
-    <row r="331" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M331" s="5"/>
     </row>
-    <row r="332" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M332" s="5"/>
     </row>
-    <row r="333" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M333" s="5"/>
     </row>
-    <row r="334" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M334" s="5"/>
     </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M335" s="5"/>
     </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M336" s="5"/>
     </row>
-    <row r="337" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M337" s="5"/>
     </row>
-    <row r="338" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M338" s="5"/>
     </row>
-    <row r="339" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M339" s="5"/>
     </row>
-    <row r="340" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M340" s="5"/>
     </row>
-    <row r="341" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M341" s="5"/>
     </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M342" s="5"/>
     </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M343" s="5"/>
     </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M344" s="5"/>
     </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M345" s="5"/>
     </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M346" s="5"/>
     </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M347" s="5"/>
     </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M348" s="5"/>
     </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M349" s="5"/>
     </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M350" s="5"/>
     </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M351" s="5"/>
     </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M352" s="5"/>
     </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M353" s="5"/>
     </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M354" s="5"/>
     </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M355" s="5"/>
     </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M356" s="5"/>
     </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M357" s="5"/>
     </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M358" s="5"/>
     </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M359" s="5"/>
     </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M360" s="5"/>
     </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M361" s="5"/>
     </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M362" s="5"/>
     </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M363" s="5"/>
     </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M364" s="5"/>
     </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M365" s="5"/>
     </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M366" s="5"/>
     </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M367" s="5"/>
     </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M368" s="5"/>
     </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M369" s="5"/>
     </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M370" s="5"/>
     </row>
-    <row r="371" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M371" s="5"/>
     </row>
-    <row r="372" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M372" s="5"/>
     </row>
-    <row r="373" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M373" s="5"/>
     </row>
-    <row r="374" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M374" s="5"/>
     </row>
-    <row r="375" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M375" s="5"/>
     </row>
-    <row r="376" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M376" s="5"/>
     </row>
-    <row r="377" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M377" s="5"/>
     </row>
-    <row r="378" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M378" s="5"/>
     </row>
-    <row r="379" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M379" s="5"/>
     </row>
-    <row r="380" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M380" s="5"/>
     </row>
-    <row r="381" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M381" s="5"/>
     </row>
-    <row r="382" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M382" s="5"/>
     </row>
-    <row r="383" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M383" s="5"/>
     </row>
-    <row r="384" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M384" s="5"/>
     </row>
-    <row r="385" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M385" s="5"/>
     </row>
-    <row r="386" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M386" s="5"/>
     </row>
-    <row r="387" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M387" s="5"/>
     </row>
-    <row r="388" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M388" s="5"/>
     </row>
-    <row r="389" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M389" s="5"/>
     </row>
-    <row r="390" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M390" s="5"/>
     </row>
-    <row r="391" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M391" s="5"/>
     </row>
-    <row r="392" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M392" s="5"/>
     </row>
-    <row r="393" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M393" s="5"/>
     </row>
-    <row r="394" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M394" s="5"/>
     </row>
-    <row r="395" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M395" s="5"/>
     </row>
-    <row r="396" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M396" s="5"/>
     </row>
-    <row r="397" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M397" s="5"/>
     </row>
-    <row r="398" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M398" s="5"/>
     </row>
-    <row r="399" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M399" s="5"/>
     </row>
-    <row r="400" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M400" s="5"/>
     </row>
-    <row r="401" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M401" s="5"/>
     </row>
-    <row r="402" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M402" s="5"/>
     </row>
-    <row r="403" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M403" s="5"/>
     </row>
-    <row r="404" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M404" s="5"/>
     </row>
-    <row r="405" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M405" s="5"/>
     </row>
-    <row r="406" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M406" s="5"/>
     </row>
-    <row r="407" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M407" s="5"/>
     </row>
-    <row r="408" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M408" s="5"/>
     </row>
-    <row r="409" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M409" s="5"/>
     </row>
-    <row r="410" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M410" s="5"/>
     </row>
-    <row r="411" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M411" s="5"/>
     </row>
-    <row r="412" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M412" s="5"/>
     </row>
-    <row r="413" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M413" s="5"/>
     </row>
-    <row r="414" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M414" s="5"/>
     </row>
-    <row r="415" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M415" s="5"/>
     </row>
-    <row r="416" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M416" s="5"/>
     </row>
-    <row r="417" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M417" s="5"/>
     </row>
-    <row r="418" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M418" s="5"/>
     </row>
-    <row r="419" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M419" s="5"/>
     </row>
-    <row r="420" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M420" s="5"/>
     </row>
-    <row r="421" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M421" s="5"/>
     </row>
-    <row r="422" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M422" s="5"/>
     </row>
-    <row r="423" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M423" s="5"/>
     </row>
-    <row r="424" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M424" s="5"/>
     </row>
-    <row r="425" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M425" s="5"/>
     </row>
-    <row r="426" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M426" s="5"/>
     </row>
-    <row r="427" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M427" s="5"/>
     </row>
-    <row r="428" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M428" s="5"/>
     </row>
-    <row r="429" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M429" s="5"/>
     </row>
-    <row r="430" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M430" s="5"/>
     </row>
-    <row r="431" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M431" s="5"/>
     </row>
-    <row r="432" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M432" s="5"/>
     </row>
-    <row r="433" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M433" s="5"/>
     </row>
-    <row r="434" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M434" s="5"/>
     </row>
-    <row r="435" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M435" s="5"/>
     </row>
-    <row r="436" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M436" s="5"/>
     </row>
-    <row r="437" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M437" s="5"/>
     </row>
-    <row r="438" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M438" s="5"/>
     </row>
-    <row r="439" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M439" s="5"/>
     </row>
-    <row r="440" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M440" s="5"/>
     </row>
-    <row r="441" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M441" s="5"/>
     </row>
-    <row r="442" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M442" s="5"/>
     </row>
-    <row r="443" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M443" s="5"/>
     </row>
-    <row r="444" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M444" s="5"/>
     </row>
-    <row r="445" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M445" s="5"/>
     </row>
-    <row r="446" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M446" s="5"/>
     </row>
-    <row r="447" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M447" s="5"/>
     </row>
-    <row r="448" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M448" s="5"/>
     </row>
-    <row r="449" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M449" s="5"/>
     </row>
-    <row r="450" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M450" s="5"/>
     </row>
-    <row r="451" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M451" s="5"/>
     </row>
-    <row r="452" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M452" s="5"/>
     </row>
-    <row r="453" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M453" s="5"/>
     </row>
-    <row r="454" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M454" s="5"/>
     </row>
-    <row r="455" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M455" s="5"/>
     </row>
-    <row r="456" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M456" s="5"/>
     </row>
-    <row r="457" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M457" s="5"/>
     </row>
-    <row r="458" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M458" s="5"/>
     </row>
-    <row r="459" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M459" s="5"/>
     </row>
-    <row r="460" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M460" s="5"/>
     </row>
-    <row r="461" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M461" s="5"/>
     </row>
-    <row r="462" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M462" s="5"/>
     </row>
-    <row r="463" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M463" s="5"/>
     </row>
-    <row r="464" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M464" s="5"/>
     </row>
-    <row r="465" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M465" s="5"/>
     </row>
-    <row r="466" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M466" s="5"/>
     </row>
-    <row r="467" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M467" s="5"/>
     </row>
-    <row r="468" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M468" s="5"/>
     </row>
-    <row r="469" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M469" s="5"/>
     </row>
-    <row r="470" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M470" s="5"/>
     </row>
-    <row r="471" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M471" s="5"/>
     </row>
-    <row r="472" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M472" s="5"/>
     </row>
-    <row r="473" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M473" s="5"/>
     </row>
-    <row r="474" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M474" s="5"/>
     </row>
-    <row r="475" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M475" s="5"/>
     </row>
-    <row r="476" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M476" s="5"/>
     </row>
-    <row r="477" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M477" s="5"/>
     </row>
-    <row r="478" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M478" s="5"/>
     </row>
-    <row r="479" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M479" s="5"/>
     </row>
-    <row r="480" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M480" s="5"/>
     </row>
-    <row r="481" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M481" s="5"/>
     </row>
-    <row r="482" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M482" s="5"/>
     </row>
-    <row r="483" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M483" s="5"/>
     </row>
-    <row r="484" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M484" s="5"/>
     </row>
-    <row r="485" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M485" s="5"/>
     </row>
-    <row r="486" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M486" s="5"/>
     </row>
-    <row r="487" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M487" s="5"/>
     </row>
-    <row r="488" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M488" s="5"/>
     </row>
-    <row r="489" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M489" s="5"/>
     </row>
-    <row r="490" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M490" s="5"/>
     </row>
-    <row r="491" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M491" s="5"/>
     </row>
-    <row r="492" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M492" s="5"/>
     </row>
-    <row r="493" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M493" s="5"/>
     </row>
-    <row r="494" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M494" s="5"/>
     </row>
-    <row r="495" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M495" s="5"/>
     </row>
-    <row r="496" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M496" s="5"/>
     </row>
-    <row r="497" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M497" s="5"/>
     </row>
-    <row r="498" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M498" s="5"/>
     </row>
-    <row r="499" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M499" s="5"/>
     </row>
-    <row r="500" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M500" s="5"/>
     </row>
-    <row r="501" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M501" s="5"/>
     </row>
-    <row r="502" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M502" s="5"/>
     </row>
-    <row r="503" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M503" s="5"/>
     </row>
-    <row r="504" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M504" s="5"/>
     </row>
-    <row r="505" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M505" s="5"/>
     </row>
-    <row r="506" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M506" s="5"/>
     </row>
-    <row r="507" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M507" s="5"/>
     </row>
-    <row r="508" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M508" s="5"/>
     </row>
-    <row r="509" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M509" s="5"/>
     </row>
-    <row r="510" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M510" s="5"/>
     </row>
-    <row r="511" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M511" s="5"/>
     </row>
-    <row r="512" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M512" s="5"/>
     </row>
-    <row r="513" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M513" s="5"/>
     </row>
-    <row r="514" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M514" s="5"/>
     </row>
-    <row r="515" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M515" s="5"/>
     </row>
-    <row r="516" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M516" s="5"/>
     </row>
-    <row r="517" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M517" s="5"/>
     </row>
-    <row r="518" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M518" s="5"/>
     </row>
-    <row r="519" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M519" s="5"/>
     </row>
-    <row r="520" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M520" s="5"/>
     </row>
-    <row r="521" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M521" s="5"/>
     </row>
-    <row r="522" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M522" s="5"/>
     </row>
-    <row r="523" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M523" s="5"/>
     </row>
-    <row r="524" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M524" s="5"/>
     </row>
-    <row r="525" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M525" s="5"/>
     </row>
-    <row r="526" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M526" s="5"/>
     </row>
-    <row r="527" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M527" s="5"/>
     </row>
-    <row r="528" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M528" s="5"/>
     </row>
-    <row r="529" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M529" s="5"/>
     </row>
-    <row r="530" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M530" s="5"/>
     </row>
-    <row r="531" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M531" s="5"/>
     </row>
-    <row r="532" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M532" s="5"/>
     </row>
-    <row r="533" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M533" s="5"/>
     </row>
-    <row r="534" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M534" s="5"/>
     </row>
-    <row r="535" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M535" s="5"/>
     </row>
-    <row r="536" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M536" s="5"/>
     </row>
-    <row r="537" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M537" s="5"/>
     </row>
-    <row r="538" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M538" s="5"/>
     </row>
-    <row r="539" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M539" s="5"/>
     </row>
-    <row r="540" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M540" s="5"/>
     </row>
-    <row r="541" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M541" s="5"/>
     </row>
-    <row r="542" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M542" s="5"/>
     </row>
-    <row r="543" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M543" s="5"/>
     </row>
-    <row r="544" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M544" s="5"/>
     </row>
-    <row r="545" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M545" s="5"/>
     </row>
-    <row r="546" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M546" s="5"/>
     </row>
-    <row r="547" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M547" s="5"/>
     </row>
-    <row r="548" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M548" s="5"/>
     </row>
-    <row r="549" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M549" s="5"/>
     </row>
-    <row r="550" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M550" s="5"/>
     </row>
-    <row r="551" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M551" s="5"/>
     </row>
-    <row r="552" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M552" s="5"/>
     </row>
-    <row r="553" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M553" s="5"/>
     </row>
-    <row r="554" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M554" s="5"/>
     </row>
-    <row r="555" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M555" s="5"/>
     </row>
-    <row r="556" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M556" s="5"/>
     </row>
-    <row r="557" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M557" s="5"/>
     </row>
-    <row r="558" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M558" s="5"/>
     </row>
-    <row r="559" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M559" s="5"/>
     </row>
-    <row r="560" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M560" s="5"/>
     </row>
-    <row r="561" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M561" s="5"/>
     </row>
-    <row r="562" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M562" s="5"/>
     </row>
-    <row r="563" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M563" s="5"/>
     </row>
-    <row r="564" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M564" s="5"/>
     </row>
-    <row r="565" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M565" s="5"/>
     </row>
-    <row r="566" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M566" s="5"/>
     </row>
-    <row r="567" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M567" s="5"/>
     </row>
-    <row r="568" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M568" s="5"/>
     </row>
-    <row r="569" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M569" s="5"/>
     </row>
-    <row r="570" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M570" s="5"/>
     </row>
-    <row r="571" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M571" s="5"/>
     </row>
-    <row r="572" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M572" s="5"/>
     </row>
-    <row r="573" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M573" s="5"/>
     </row>
-    <row r="574" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M574" s="5"/>
     </row>
-    <row r="575" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M575" s="5"/>
     </row>
-    <row r="576" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M576" s="5"/>
     </row>
-    <row r="577" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M577" s="5"/>
     </row>
-    <row r="578" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M578" s="5"/>
     </row>
-    <row r="579" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M579" s="5"/>
     </row>
-    <row r="580" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M580" s="5"/>
     </row>
-    <row r="581" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M581" s="5"/>
     </row>
-    <row r="582" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M582" s="5"/>
     </row>
-    <row r="583" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M583" s="5"/>
     </row>
-    <row r="584" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M584" s="5"/>
     </row>
-    <row r="585" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M585" s="5"/>
     </row>
-    <row r="586" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M586" s="5"/>
     </row>
-    <row r="587" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M587" s="5"/>
     </row>
-    <row r="588" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M588" s="5"/>
     </row>
-    <row r="589" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M589" s="5"/>
     </row>
-    <row r="590" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M590" s="5"/>
     </row>
-    <row r="591" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M591" s="5"/>
     </row>
-    <row r="592" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M592" s="5"/>
     </row>
-    <row r="593" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M593" s="5"/>
     </row>
-    <row r="594" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M594" s="5"/>
     </row>
-    <row r="595" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M595" s="5"/>
     </row>
-    <row r="596" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M596" s="5"/>
     </row>
-    <row r="597" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M597" s="5"/>
     </row>
-    <row r="598" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M598" s="5"/>
     </row>
-    <row r="599" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M599" s="5"/>
     </row>
-    <row r="600" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M600" s="5"/>
     </row>
-    <row r="601" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M601" s="5"/>
     </row>
-    <row r="602" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M602" s="5"/>
     </row>
-    <row r="603" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M603" s="5"/>
     </row>
-    <row r="604" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M604" s="5"/>
     </row>
-    <row r="605" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M605" s="5"/>
     </row>
-    <row r="606" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M606" s="5"/>
     </row>
-    <row r="607" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M607" s="5"/>
     </row>
-    <row r="608" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M608" s="5"/>
     </row>
-    <row r="609" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M609" s="5"/>
     </row>
-    <row r="610" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M610" s="5"/>
     </row>
-    <row r="611" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M611" s="5"/>
     </row>
-    <row r="612" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M612" s="5"/>
     </row>
-    <row r="613" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M613" s="5"/>
     </row>
-    <row r="614" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M614" s="5"/>
     </row>
-    <row r="615" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M615" s="5"/>
     </row>
-    <row r="616" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M616" s="5"/>
     </row>
-    <row r="617" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M617" s="5"/>
     </row>
-    <row r="618" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M618" s="5"/>
     </row>
-    <row r="619" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M619" s="5"/>
     </row>
-    <row r="620" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M620" s="5"/>
     </row>
-    <row r="621" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M621" s="5"/>
     </row>
-    <row r="622" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M622" s="5"/>
     </row>
-    <row r="623" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M623" s="5"/>
     </row>
-    <row r="624" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M624" s="5"/>
     </row>
-    <row r="625" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M625" s="5"/>
     </row>
-    <row r="626" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M626" s="5"/>
     </row>
-    <row r="627" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M627" s="5"/>
     </row>
-    <row r="628" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M628" s="5"/>
     </row>
-    <row r="629" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M629" s="5"/>
     </row>
-    <row r="630" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M630" s="5"/>
     </row>
-    <row r="631" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M631" s="5"/>
     </row>
-    <row r="632" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M632" s="5"/>
     </row>
-    <row r="633" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M633" s="5"/>
     </row>
-    <row r="634" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M634" s="5"/>
     </row>
-    <row r="635" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M635" s="5"/>
     </row>
-    <row r="636" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M636" s="5"/>
     </row>
-    <row r="637" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M637" s="5"/>
     </row>
-    <row r="638" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M638" s="5"/>
     </row>
-    <row r="639" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M639" s="5"/>
     </row>
-    <row r="640" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M640" s="5"/>
     </row>
-    <row r="641" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M641" s="5"/>
     </row>
-    <row r="642" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M642" s="5"/>
     </row>
-    <row r="643" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M643" s="5"/>
     </row>
-    <row r="644" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M644" s="5"/>
     </row>
-    <row r="645" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M645" s="5"/>
     </row>
-    <row r="646" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M646" s="5"/>
     </row>
-    <row r="647" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M647" s="5"/>
     </row>
-    <row r="648" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M648" s="5"/>
     </row>
-    <row r="649" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M649" s="5"/>
     </row>
-    <row r="650" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M650" s="5"/>
     </row>
-    <row r="651" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M651" s="5"/>
     </row>
-    <row r="652" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M652" s="5"/>
     </row>
-    <row r="653" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M653" s="5"/>
     </row>
-    <row r="654" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M654" s="5"/>
     </row>
-    <row r="655" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M655" s="5"/>
     </row>
-    <row r="656" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M656" s="5"/>
     </row>
-    <row r="657" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M657" s="5"/>
     </row>
-    <row r="658" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M658" s="5"/>
     </row>
-    <row r="659" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M659" s="5"/>
     </row>
-    <row r="660" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M660" s="5"/>
     </row>
-    <row r="661" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M661" s="5"/>
     </row>
-    <row r="662" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M662" s="5"/>
     </row>
-    <row r="663" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M663" s="5"/>
     </row>
-    <row r="664" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M664" s="5"/>
     </row>
-    <row r="665" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M665" s="5"/>
     </row>
-    <row r="666" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M666" s="5"/>
     </row>
-    <row r="667" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M667" s="5"/>
     </row>
-    <row r="668" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M668" s="5"/>
     </row>
-    <row r="669" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M669" s="5"/>
     </row>
-    <row r="670" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M670" s="5"/>
     </row>
-    <row r="671" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M671" s="5"/>
     </row>
-    <row r="672" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M672" s="5"/>
     </row>
-    <row r="673" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M673" s="5"/>
     </row>
-    <row r="674" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M674" s="5"/>
     </row>
-    <row r="675" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M675" s="5"/>
     </row>
-    <row r="676" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M676" s="5"/>
     </row>
-    <row r="677" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M677" s="5"/>
     </row>
-    <row r="678" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M678" s="5"/>
     </row>
-    <row r="679" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M679" s="5"/>
     </row>
-    <row r="680" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M680" s="5"/>
     </row>
-    <row r="681" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M681" s="5"/>
     </row>
-    <row r="682" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M682" s="5"/>
     </row>
-    <row r="683" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M683" s="5"/>
     </row>
-    <row r="684" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M684" s="5"/>
     </row>
-    <row r="685" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M685" s="5"/>
     </row>
-    <row r="686" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M686" s="5"/>
     </row>
-    <row r="687" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M687" s="5"/>
     </row>
-    <row r="688" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M688" s="5"/>
     </row>
-    <row r="689" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M689" s="5"/>
     </row>
-    <row r="690" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M690" s="5"/>
     </row>
-    <row r="691" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M691" s="5"/>
     </row>
-    <row r="692" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M692" s="5"/>
     </row>
-    <row r="693" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M693" s="5"/>
     </row>
-    <row r="694" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M694" s="5"/>
     </row>
-    <row r="695" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M695" s="5"/>
     </row>
-    <row r="696" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M696" s="5"/>
     </row>
-    <row r="697" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M697" s="5"/>
     </row>
-    <row r="698" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M698" s="5"/>
     </row>
-    <row r="699" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M699" s="5"/>
     </row>
-    <row r="700" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M700" s="5"/>
     </row>
-    <row r="701" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M701" s="5"/>
     </row>
-    <row r="702" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M702" s="5"/>
     </row>
-    <row r="703" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M703" s="5"/>
     </row>
-    <row r="704" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M704" s="5"/>
     </row>
-    <row r="705" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M705" s="5"/>
     </row>
-    <row r="706" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M706" s="5"/>
     </row>
-    <row r="707" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M707" s="5"/>
     </row>
-    <row r="708" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M708" s="5"/>
     </row>
-    <row r="709" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M709" s="5"/>
     </row>
-    <row r="710" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M710" s="5"/>
     </row>
-    <row r="711" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M711" s="5"/>
     </row>
-    <row r="712" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M712" s="5"/>
     </row>
-    <row r="713" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M713" s="5"/>
     </row>
-    <row r="714" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M714" s="5"/>
     </row>
-    <row r="715" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M715" s="5"/>
     </row>
-    <row r="716" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M716" s="5"/>
     </row>
-    <row r="717" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M717" s="5"/>
     </row>
-    <row r="718" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M718" s="5"/>
     </row>
-    <row r="719" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M719" s="5"/>
     </row>
-    <row r="720" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M720" s="5"/>
     </row>
-    <row r="721" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M721" s="5"/>
     </row>
-    <row r="722" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M722" s="5"/>
     </row>
-    <row r="723" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M723" s="5"/>
     </row>
-    <row r="724" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M724" s="5"/>
     </row>
-    <row r="725" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M725" s="5"/>
     </row>
-    <row r="726" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M726" s="5"/>
     </row>
-    <row r="727" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M727" s="5"/>
     </row>
-    <row r="728" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M728" s="5"/>
     </row>
-    <row r="729" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M729" s="5"/>
     </row>
-    <row r="730" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M730" s="5"/>
     </row>
-    <row r="731" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M731" s="5"/>
     </row>
-    <row r="732" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M732" s="5"/>
     </row>
-    <row r="733" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M733" s="5"/>
     </row>
-    <row r="734" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M734" s="5"/>
     </row>
-    <row r="735" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M735" s="5"/>
     </row>
-    <row r="736" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M736" s="5"/>
     </row>
-    <row r="737" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M737" s="5"/>
     </row>
-    <row r="738" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M738" s="5"/>
     </row>
-    <row r="739" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M739" s="5"/>
     </row>
-    <row r="740" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M740" s="5"/>
     </row>
-    <row r="741" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M741" s="5"/>
     </row>
-    <row r="742" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M742" s="5"/>
     </row>
-    <row r="743" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M743" s="5"/>
     </row>
-    <row r="744" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M744" s="5"/>
     </row>
-    <row r="745" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M745" s="5"/>
     </row>
-    <row r="746" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M746" s="5"/>
     </row>
-    <row r="747" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M747" s="5"/>
     </row>
-    <row r="748" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M748" s="5"/>
     </row>
-    <row r="749" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M749" s="5"/>
     </row>
-    <row r="750" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M750" s="5"/>
     </row>
-    <row r="751" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M751" s="5"/>
     </row>
-    <row r="752" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M752" s="5"/>
     </row>
-    <row r="753" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M753" s="5"/>
     </row>
-    <row r="754" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M754" s="5"/>
     </row>
-    <row r="755" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M755" s="5"/>
     </row>
-    <row r="756" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M756" s="5"/>
     </row>
-    <row r="757" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M757" s="5"/>
     </row>
-    <row r="758" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M758" s="5"/>
     </row>
-    <row r="759" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M759" s="5"/>
     </row>
-    <row r="760" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M760" s="5"/>
     </row>
-    <row r="761" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M761" s="5"/>
     </row>
-    <row r="762" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M762" s="5"/>
     </row>
-    <row r="763" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M763" s="5"/>
     </row>
-    <row r="764" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M764" s="5"/>
     </row>
-    <row r="765" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M765" s="5"/>
     </row>
-    <row r="766" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M766" s="5"/>
     </row>
-    <row r="767" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M767" s="5"/>
     </row>
-    <row r="768" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M768" s="5"/>
     </row>
-    <row r="769" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M769" s="5"/>
     </row>
-    <row r="770" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M770" s="5"/>
     </row>
-    <row r="771" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M771" s="5"/>
     </row>
-    <row r="772" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M772" s="5"/>
     </row>
-    <row r="773" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M773" s="5"/>
     </row>
-    <row r="774" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M774" s="5"/>
     </row>
-    <row r="775" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M775" s="5"/>
     </row>
-    <row r="776" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M776" s="5"/>
     </row>
-    <row r="777" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M777" s="5"/>
     </row>
-    <row r="778" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M778" s="5"/>
     </row>
-    <row r="779" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M779" s="5"/>
     </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M780" s="5"/>
     </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M781" s="5"/>
     </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M782" s="5"/>
     </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M783" s="5"/>
     </row>
-    <row r="784" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M784" s="5"/>
     </row>
-    <row r="785" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M785" s="5"/>
     </row>
-    <row r="786" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M786" s="5"/>
     </row>
-    <row r="787" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M787" s="5"/>
     </row>
-    <row r="788" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M788" s="5"/>
     </row>
-    <row r="789" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M789" s="5"/>
     </row>
-    <row r="790" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M790" s="5"/>
     </row>
-    <row r="791" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M791" s="5"/>
     </row>
-    <row r="792" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M792" s="5"/>
     </row>
-    <row r="793" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M793" s="5"/>
     </row>
-    <row r="794" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M794" s="5"/>
     </row>
-    <row r="795" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M795" s="5"/>
     </row>
-    <row r="796" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M796" s="5"/>
     </row>
-    <row r="797" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M797" s="5"/>
     </row>
-    <row r="798" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M798" s="5"/>
     </row>
-    <row r="799" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M799" s="5"/>
     </row>
-    <row r="800" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M800" s="5"/>
     </row>
-    <row r="801" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M801" s="5"/>
     </row>
-    <row r="802" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M802" s="5"/>
     </row>
-    <row r="803" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M803" s="5"/>
     </row>
-    <row r="804" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M804" s="5"/>
     </row>
-    <row r="805" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M805" s="5"/>
     </row>
-    <row r="806" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M806" s="5"/>
     </row>
-    <row r="807" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M807" s="5"/>
     </row>
-    <row r="808" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M808" s="5"/>
     </row>
-    <row r="809" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M809" s="5"/>
     </row>
-    <row r="810" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M810" s="5"/>
     </row>
-    <row r="811" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M811" s="5"/>
     </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M812" s="5"/>
     </row>
-    <row r="813" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M813" s="5"/>
     </row>
-    <row r="814" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M814" s="5"/>
     </row>
-    <row r="815" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M815" s="5"/>
     </row>
-    <row r="816" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M816" s="5"/>
     </row>
-    <row r="817" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M817" s="5"/>
     </row>
-    <row r="818" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M818" s="5"/>
     </row>
-    <row r="819" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M819" s="5"/>
     </row>
-    <row r="820" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M820" s="5"/>
     </row>
-    <row r="821" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M821" s="5"/>
     </row>
-    <row r="822" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M822" s="5"/>
     </row>
-    <row r="823" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M823" s="5"/>
     </row>
-    <row r="824" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M824" s="5"/>
     </row>
-    <row r="825" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M825" s="5"/>
     </row>
-    <row r="826" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M826" s="5"/>
     </row>
-    <row r="827" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M827" s="5"/>
     </row>
-    <row r="828" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M828" s="5"/>
     </row>
-    <row r="829" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M829" s="5"/>
     </row>
-    <row r="830" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M830" s="5"/>
     </row>
-    <row r="831" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M831" s="5"/>
     </row>
-    <row r="832" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M832" s="5"/>
     </row>
-    <row r="833" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M833" s="5"/>
     </row>
-    <row r="834" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M834" s="5"/>
     </row>
-    <row r="835" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M835" s="5"/>
     </row>
-    <row r="836" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M836" s="5"/>
     </row>
-    <row r="837" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M837" s="5"/>
     </row>
-    <row r="838" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M838" s="5"/>
     </row>
-    <row r="839" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M839" s="5"/>
     </row>
-    <row r="840" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M840" s="5"/>
     </row>
-    <row r="841" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M841" s="5"/>
     </row>
-    <row r="842" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M842" s="5"/>
     </row>
-    <row r="843" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M843" s="5"/>
     </row>
-    <row r="844" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M844" s="5"/>
     </row>
-    <row r="845" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M845" s="5"/>
     </row>
-    <row r="846" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M846" s="5"/>
     </row>
-    <row r="847" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M847" s="5"/>
     </row>
-    <row r="848" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M848" s="5"/>
     </row>
-    <row r="849" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M849" s="5"/>
     </row>
-    <row r="850" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M850" s="5"/>
     </row>
-    <row r="851" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M851" s="5"/>
     </row>
-    <row r="852" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M852" s="5"/>
     </row>
-    <row r="853" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M853" s="5"/>
     </row>
-    <row r="854" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M854" s="5"/>
     </row>
-    <row r="855" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M855" s="5"/>
     </row>
-    <row r="856" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M856" s="5"/>
     </row>
-    <row r="857" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M857" s="5"/>
     </row>
-    <row r="858" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M858" s="5"/>
     </row>
-    <row r="859" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M859" s="5"/>
     </row>
-    <row r="860" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M860" s="5"/>
     </row>
-    <row r="861" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M861" s="5"/>
     </row>
-    <row r="862" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M862" s="5"/>
     </row>
-    <row r="863" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M863" s="5"/>
     </row>
-    <row r="864" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M864" s="5"/>
     </row>
-    <row r="865" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M865" s="5"/>
     </row>
-    <row r="866" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M866" s="5"/>
     </row>
-    <row r="867" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M867" s="5"/>
     </row>
-    <row r="868" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M868" s="5"/>
     </row>
-    <row r="869" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M869" s="5"/>
     </row>
-    <row r="870" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M870" s="5"/>
     </row>
-    <row r="871" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M871" s="5"/>
     </row>
-    <row r="872" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M872" s="5"/>
     </row>
-    <row r="873" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M873" s="5"/>
     </row>
-    <row r="874" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M874" s="5"/>
     </row>
-    <row r="875" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M875" s="5"/>
     </row>
-    <row r="876" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M876" s="5"/>
     </row>
-    <row r="877" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M877" s="5"/>
     </row>
-    <row r="878" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M878" s="5"/>
     </row>
-    <row r="879" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M879" s="5"/>
     </row>
-    <row r="880" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M880" s="5"/>
     </row>
-    <row r="881" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M881" s="5"/>
     </row>
-    <row r="882" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M882" s="5"/>
     </row>
-    <row r="883" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M883" s="5"/>
     </row>
-    <row r="884" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M884" s="5"/>
     </row>
-    <row r="885" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M885" s="5"/>
     </row>
-    <row r="886" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M886" s="5"/>
     </row>
-    <row r="887" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M887" s="5"/>
     </row>
-    <row r="888" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M888" s="5"/>
     </row>
-    <row r="889" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M889" s="5"/>
     </row>
-    <row r="890" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M890" s="5"/>
     </row>
-    <row r="891" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M891" s="5"/>
     </row>
-    <row r="892" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M892" s="5"/>
     </row>
-    <row r="893" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M893" s="5"/>
     </row>
-    <row r="894" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M894" s="5"/>
     </row>
-    <row r="895" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M895" s="5"/>
     </row>
-    <row r="896" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M896" s="5"/>
     </row>
-    <row r="897" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M897" s="5"/>
     </row>
-    <row r="898" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M898" s="5"/>
     </row>
-    <row r="899" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M899" s="5"/>
     </row>
-    <row r="900" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M900" s="5"/>
     </row>
-    <row r="901" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M901" s="5"/>
     </row>
-    <row r="902" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M902" s="5"/>
     </row>
-    <row r="903" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M903" s="5"/>
     </row>
-    <row r="904" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M904" s="5"/>
     </row>
-    <row r="905" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M905" s="5"/>
     </row>
-    <row r="906" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M906" s="5"/>
     </row>
-    <row r="907" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M907" s="5"/>
     </row>
-    <row r="908" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M908" s="5"/>
     </row>
-    <row r="909" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M909" s="5"/>
     </row>
-    <row r="910" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M910" s="5"/>
     </row>
-    <row r="911" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M911" s="5"/>
     </row>
-    <row r="912" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M912" s="5"/>
     </row>
-    <row r="913" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M913" s="5"/>
     </row>
-    <row r="914" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M914" s="5"/>
     </row>
-    <row r="915" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M915" s="5"/>
     </row>
-    <row r="916" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M916" s="5"/>
     </row>
-    <row r="917" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M917" s="5"/>
     </row>
-    <row r="918" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M918" s="5"/>
     </row>
-    <row r="919" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M919" s="5"/>
     </row>
-    <row r="920" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M920" s="5"/>
     </row>
-    <row r="921" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M921" s="5"/>
     </row>
-    <row r="922" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M922" s="5"/>
     </row>
-    <row r="923" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M923" s="5"/>
     </row>
-    <row r="924" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M924" s="5"/>
     </row>
-    <row r="925" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M925" s="5"/>
     </row>
-    <row r="926" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M926" s="5"/>
     </row>
-    <row r="927" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M927" s="5"/>
     </row>
-    <row r="928" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M928" s="5"/>
     </row>
-    <row r="929" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M929" s="5"/>
     </row>
-    <row r="930" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M930" s="5"/>
     </row>
-    <row r="931" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M931" s="5"/>
     </row>
-    <row r="932" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M932" s="5"/>
     </row>
-    <row r="933" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M933" s="5"/>
     </row>
-    <row r="934" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M934" s="5"/>
     </row>
-    <row r="935" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M935" s="5"/>
     </row>
-    <row r="936" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M936" s="5"/>
     </row>
-    <row r="937" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M937" s="5"/>
     </row>
-    <row r="938" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M938" s="5"/>
     </row>
-    <row r="939" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M939" s="5"/>
     </row>
-    <row r="940" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M940" s="5"/>
     </row>
-    <row r="941" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M941" s="5"/>
     </row>
-    <row r="942" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M942" s="5"/>
     </row>
-    <row r="943" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M943" s="5"/>
     </row>
-    <row r="944" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M944" s="5"/>
     </row>
-    <row r="945" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M945" s="5"/>
     </row>
-    <row r="946" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M946" s="5"/>
     </row>
-    <row r="947" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="947" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M947" s="5"/>
     </row>
-    <row r="948" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="948" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M948" s="5"/>
     </row>
-    <row r="949" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="949" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M949" s="5"/>
     </row>
-    <row r="950" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="950" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M950" s="5"/>
     </row>
-    <row r="951" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="951" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M951" s="5"/>
     </row>
-    <row r="952" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="952" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M952" s="5"/>
     </row>
-    <row r="953" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="953" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M953" s="5"/>
     </row>
-    <row r="954" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="954" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M954" s="5"/>
     </row>
-    <row r="955" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="955" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M955" s="5"/>
     </row>
-    <row r="956" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="956" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M956" s="5"/>
     </row>
-    <row r="957" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="957" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M957" s="5"/>
     </row>
-    <row r="958" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="958" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M958" s="5"/>
     </row>
-    <row r="959" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="959" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M959" s="5"/>
     </row>
-    <row r="960" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="960" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M960" s="5"/>
     </row>
-    <row r="961" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M961" s="5"/>
     </row>
-    <row r="962" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M962" s="5"/>
     </row>
-    <row r="963" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="963" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M963" s="5"/>
     </row>
-    <row r="964" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M964" s="5"/>
     </row>
-    <row r="965" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M965" s="5"/>
     </row>
-    <row r="966" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M966" s="5"/>
     </row>
-    <row r="967" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M967" s="5"/>
     </row>
-    <row r="968" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M968" s="5"/>
     </row>
-    <row r="969" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="969" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M969" s="5"/>
     </row>
-    <row r="970" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M970" s="5"/>
     </row>
-    <row r="971" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="971" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M971" s="5"/>
     </row>
-    <row r="972" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M972" s="5"/>
     </row>
-    <row r="973" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M973" s="5"/>
     </row>
-    <row r="974" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="974" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M974" s="5"/>
     </row>
-    <row r="975" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M975" s="5"/>
     </row>
-    <row r="976" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M976" s="5"/>
     </row>
-    <row r="977" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="977" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M977" s="5"/>
     </row>
-    <row r="978" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="978" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M978" s="5"/>
     </row>
-    <row r="979" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="979" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M979" s="5"/>
     </row>
-    <row r="980" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="980" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M980" s="5"/>
     </row>
-    <row r="981" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="981" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M981" s="5"/>
     </row>
-    <row r="982" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="982" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M982" s="5"/>
     </row>
-    <row r="983" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="983" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M983" s="5"/>
     </row>
-    <row r="984" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="984" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M984" s="5"/>
     </row>
-    <row r="985" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="985" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M985" s="5"/>
     </row>
-    <row r="986" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="986" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M986" s="5"/>
     </row>
-    <row r="987" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="987" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M987" s="5"/>
     </row>
-    <row r="988" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="988" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M988" s="5"/>
     </row>
-    <row r="989" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="989" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M989" s="5"/>
     </row>
-    <row r="990" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="990" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M990" s="5"/>
     </row>
-    <row r="991" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="991" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M991" s="5"/>
     </row>
-    <row r="992" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="992" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M992" s="5"/>
     </row>
-    <row r="993" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M993" s="5"/>
     </row>
-    <row r="994" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M994" s="5"/>
     </row>
-    <row r="995" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M995" s="5"/>
     </row>
-    <row r="996" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="996" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M996" s="5"/>
     </row>
-    <row r="997" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M997" s="5"/>
     </row>
-    <row r="998" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M998" s="5"/>
     </row>
-    <row r="999" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M999" s="5"/>
     </row>
-    <row r="1000" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M1000" s="5"/>
     </row>
-    <row r="1001" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M1001" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:M93">
+  <sortState ref="L2:M93">
     <sortCondition descending="1" ref="L2:L93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
